--- a/A_Input/city_list.xlsx
+++ b/A_Input/city_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s8/Documents/Coding/us_travels/A_Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s8/Documents/Coding/travel_weather/A_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D4078-BD9F-E740-A2E3-0E1319B78EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DFE617-3203-7F45-A3DD-B07BD16ECBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3220" windowWidth="20620" windowHeight="14260" activeTab="1" xr2:uid="{724935DA-9DBD-364F-92E1-C441C90E19CB}"/>
+    <workbookView xWindow="-34380" yWindow="900" windowWidth="20620" windowHeight="14260" xr2:uid="{724935DA-9DBD-364F-92E1-C441C90E19CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="290">
   <si>
     <t>Num</t>
   </si>
@@ -907,6 +907,9 @@
   </si>
   <si>
     <t>SFO &gt; HNL</t>
+  </si>
+  <si>
+    <t>DC Two Hour Radius</t>
   </si>
 </sst>
 </file>
@@ -2445,7 +2448,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E27A4137-60C9-F84F-8E12-E06B21833754}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E27A4137-60C9-F84F-8E12-E06B21833754}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2637,7 +2640,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FF45142-A6BF-5043-B5DB-C6D8F20294A7}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FF45142-A6BF-5043-B5DB-C6D8F20294A7}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A19:C74" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -3200,11 +3203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4038DB3-8426-7C4B-9410-FFCEAF90185D}">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5278,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="12">
-        <f t="shared" ref="G67:G129" si="3">((1-E67)-(1-F67))+((1-F67)*2)</f>
+        <f t="shared" ref="G67:G130" si="3">((1-E67)-(1-F67))+((1-F67)*2)</f>
         <v>1</v>
       </c>
       <c r="H67" s="1">
@@ -6536,7 +6539,7 @@
         <v>78</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f t="shared" ref="C108:C129" si="5">RIGHT(B108,2)</f>
+        <f t="shared" ref="C108:C134" si="5">RIGHT(B108,2)</f>
         <v>TX</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -7208,6 +7211,161 @@
       </c>
       <c r="I129" s="1">
         <v>41.139981400000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>130</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>DC</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1</v>
+      </c>
+      <c r="G130" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>-77.036870699999994</v>
+      </c>
+      <c r="I130" s="1">
+        <v>38.907192299999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>131</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>MD</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1">
+        <f t="shared" ref="G131:G134" si="6">((1-E131)-(1-F131))+((1-F131)*2)</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>-76.492182900000003</v>
+      </c>
+      <c r="I131" s="1">
+        <v>38.978445299999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>132</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>MD</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E132" s="5">
+        <v>1</v>
+      </c>
+      <c r="F132" s="5">
+        <v>0</v>
+      </c>
+      <c r="G132" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H132" s="1">
+        <v>-76.612189299999997</v>
+      </c>
+      <c r="I132" s="1">
+        <v>39.290384799999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>133</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C133" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>DE</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0</v>
+      </c>
+      <c r="F133" s="5">
+        <v>0</v>
+      </c>
+      <c r="G133" s="5">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H133" s="1">
+        <v>-75.524368199999998</v>
+      </c>
+      <c r="I133" s="1">
+        <v>39.158168000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>134</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>PA</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H134" s="1">
+        <v>-76.8867008</v>
+      </c>
+      <c r="I134" s="1">
+        <v>40.273191099999998</v>
       </c>
     </row>
   </sheetData>
@@ -7227,7 +7385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9631FB04-418B-8B42-963F-59DBC5B62716}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/A_Input/city_list.xlsx
+++ b/A_Input/city_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s8/Documents/Coding/travel_weather/A_Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s8/Documents/Coding/us_travels/A_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DFE617-3203-7F45-A3DD-B07BD16ECBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B413607E-1851-4445-B105-41B491D9EE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34380" yWindow="900" windowWidth="20620" windowHeight="14260" xr2:uid="{724935DA-9DBD-364F-92E1-C441C90E19CB}"/>
+    <workbookView xWindow="-34280" yWindow="2120" windowWidth="23380" windowHeight="15340" xr2:uid="{724935DA-9DBD-364F-92E1-C441C90E19CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="286">
   <si>
     <t>Num</t>
   </si>
@@ -759,157 +759,145 @@
     <t>Dec</t>
   </si>
   <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>best_temp_1</t>
+  </si>
+  <si>
+    <t>best_temp_2</t>
+  </si>
+  <si>
+    <t>bt1</t>
+  </si>
+  <si>
+    <t>bt2</t>
+  </si>
+  <si>
+    <t>states_etc</t>
+  </si>
+  <si>
+    <t>url1</t>
+  </si>
+  <si>
+    <t>url2</t>
+  </si>
+  <si>
+    <t>url3</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Toronto,+ON,+Canada/Ottawa,+ON,+Canada/Montreal,+QC,+Canada/Qu%C3%A9bec,+QC,+Canada/Montr%C3%A9al,+QC,+Canada/Toronto,+ON,+Canada/@45.1540678,-79.7807285,6z/data=!3m1!4b1!4m41!4m40!1m5!1m1!1s0x89d4cb90d7c63ba5:0x323555502ab4c477!2m2!1d-79.3831843!2d43.653226!1m5!1m1!1s0x4cce05b25f5113af:0x8a6a51e131dd15ed!2m2!1d-75.6971931!2d45.4215296!1m5!1m1!1s0x4cc91a541c64b70d:0x654e3138211fefef!2m2!1d-73.567256!2d45.5016889!1m5!1m1!1s0x4cb8968a05db8893:0x8fc52d63f0e83a03!2m2!1d-71.2079809!2d46.8138783!1m5!1m1!1s0x4cc91a541c64b70d:0x654e3138211fefef!2m2!1d-73.567256!2d45.5016889!1m5!1m1!1s0x89d4cb90d7c63ba5:0x323555502ab4c477!2m2!1d-79.3831843!2d43.653226!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Anchorage,+AK/Fairbanks,+AK/Anchorage,+AK/@63.8441792,-152.4627417,6.14z/data=!4m22!4m21!1m5!1m1!1s0x56c8917604b33f41:0x257dba5aa78468e3!2m2!1d-149.9002778!2d61.2180556!1m5!1m1!1s0x5132454f67fd65a9:0xb3d805e009fef73a!2m2!1d-147.7163888!2d64.8377778!1m5!1m1!1s0x56c8917604b33f41:0x257dba5aa78468e3!2m2!1d-149.9002778!2d61.2180556!2m1!2b1!3e0</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Denver,+CO/Grand+Junction,+CO/Salt+Lake+City,+UT/Boise,+ID/Idaho+Falls,+ID/Helena,+MT/Billings,+MT/Casper,+WY/Cheyenne,+WY/Denver,+Colorado/@42.4201276,-119.4822548,5z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x876b80aa231f17cf:0x118ef4f8278a36d6!2m2!1d-104.990251!2d39.7392358!1m5!1m1!1s0x8746d6e322e77057:0xcc63f451cebf7c56!2m2!1d-108.5506486!2d39.0638705!1m5!1m1!1s0x87523d9488d131ed:0x5b53b7a0484d31ca!2m2!1d-111.8910474!2d40.7607793!1m5!1m1!1s0x54aef172e947b49d:0x9a5b989b36679d9b!2m2!1d-116.2023137!2d43.6150186!1m5!1m1!1s0x5354594e739512b5:0x2311c9fc094c49c9!2m2!1d-112.0407584!2d43.4926607!1m5!1m1!1s0x5343510fedc7db4d:0x214c1d71e3fdf714!2m2!1d-112.0391057!2d46.5891452!1m5!1m1!1s0x53486f8888fa9d97:0x373556d4f179b550!2m2!1d-108.5006904!2d45.7832856!1m5!1m1!1s0x87609365c85e7a63:0x69cefc3917343e53!2m2!1d-106.2980824!2d42.848709!1m5!1m1!1s0x876f38762e73ef93:0xb10a30418f972d2b!2m2!1d-104.8202462!2d41.1399814!1m5!1m1!1s0x876b80aa231f17cf:0x118ef4f8278a36d6!2m2!1d-104.990251!2d39.7392358!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Minneapolis,+MN/Sioux+Falls,+SD/Pierre,+SD/Bismarck,+ND/Fargo,+ND/Winnipeg,+MB,+Canada/Duluth,+MN/Minneapolis,+MN/@46.6404497,-100.928197,6z/data=!3m1!4b1!4m53!4m52!1m5!1m1!1s0x52b333909377bbbd:0x939fc9842f7aee07!2m2!1d-93.2650108!2d44.977753!1m5!1m1!1s0x878eb498e0bdacd7:0xde95ff3aa8b2fccf!2m2!1d-96.731265!2d43.5460223!1m5!1m1!1s0x52d54a64b288f891:0x9e9950165931af92!2m2!1d-100.3537522!2d44.3667876!1m5!1m1!1s0x52d7831257d8e963:0xccaabd12f9bbca93!2m2!1d-100.7837392!2d46.8083268!1m5!1m1!1s0x52c8cb8d84677145:0x81aa30a52791aaca!2m2!1d-96.7898034!2d46.8771863!1m5!1m1!1s0x52ea73fbf91a2b11:0x2b2a1afac6b9ca64!2m2!1d-97.1383744!2d49.895136!1m5!1m1!1s0x52ae527e782e37ff:0x90fdbf76eb580c72!2m2!1d-92.1004852!2d46.7866719!1m5!1m1!1s0x52b333909377bbbd:0x939fc9842f7aee07!2m2!1d-93.2650108!2d44.977753!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Seattle,+WA/Vancouver,+BC,+Canada/Leavenworth,+WA/Spokane,+WA/Redding,+CA/Gold+Beach,+OR/Salem,+OR/Portland,+OR/Olympia,+WA/Seattle,+WA/@44.8374018,-125.1438928,6.26z/data=!4m65!4m64!1m5!1m1!1s0x5490102c93e83355:0x102565466944d59a!2m2!1d-122.3320708!2d47.6062095!1m5!1m1!1s0x548673f143a94fb3:0xbb9196ea9b81f38b!2m2!1d-123.1207375!2d49.2827291!1m5!1m1!1s0x549a4d92a4f8f98d:0xa14f95fb0abfef7e!2m2!1d-120.6614765!2d47.5962326!1m5!1m1!1s0x549e185c30bbe7e5:0xddfcc9d60b84d9b1!2m2!1d-117.4260465!2d47.6587802!1m5!1m1!1s0x54d291d63b4a202f:0x1f3358ec7b360f57!2m2!1d-122.3916754!2d40.5865396!1m5!1m1!1s0x54dace49bf9ae73d:0x121195079f68806d!2m2!1d-124.4217741!2d42.4073334!1m5!1m1!1s0x54bffefcbc4b9c63:0xf93429e08f0357c2!2m2!1d-123.0350963!2d44.9428975!1m5!1m1!1s0x54950b0b7da97427:0x1c36b9e6f6d18591!2m2!1d-122.6783853!2d45.515232!1m5!1m1!1s0x5491c9c1ae285569:0x4f146197e2881b83!2m2!1d-122.9006951!2d47.0378741!1m5!1m1!1s0x5490102c93e83355:0x102565466944d59a!2m2!1d-122.3320708!2d47.6062095!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Albany,+NY/Burlington,+VT/Montpelier,+VT/Concord,+NH/Augusta,+ME/Portland,+ME/Boston,+MA/Barnstable,+MA/Providence,+RI/Hartford,+CT/@41.8793352,-74.5474305,7z/data=!4m65!4m64!1m5!1m1!1s0x89de0a34cc4ffb4b:0xe1a16312a0e728c4!2m2!1d-73.7562317!2d42.6525793!1m5!1m1!1s0x4cca7a55b69b55e5:0xc35fe519720e498e!2m2!1d-73.212072!2d44.4758825!1m5!1m1!1s0x4cb5a78cc44dea05:0x4891e094ceb5836!2m2!1d-72.5753869!2d44.2600593!1m5!1m1!1s0x89e26a96154a8917:0x5a871a0a62528f1!2m2!1d-71.5375718!2d43.2081366!1m5!1m1!1s0x4cb200fdafacc49d:0x79a3488d64220b2d!2m2!1d-69.7794897!2d44.3106241!1m5!1m1!1s0x4cb29c72aab0ee2d:0x7e9db6b53372fa29!2m2!1d-70.2568189!2d43.6590993!1m5!1m1!1s0x89e3652d0d3d311b:0x787cbf240162e8a0!2m2!1d-71.0588801!2d42.3600825!1m5!1m1!1s0x89fb33b67f8ec5e5:0xea7648efbb136d73!2m2!1d-70.3002024!2d41.7003208!1m5!1m1!1s0x89e444e0437e735d:0x69df7c4d48b3b627!2m2!1d-71.4128343!2d41.8239891!1m5!1m1!1s0x89e65311f21151a5:0xcc8e4aa8e97d5999!2m2!1d-72.6733723!2d41.7658043!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Hartford,+CT/New+York,+NY/Trenton,+NJ/Philadelphia,+PA/Dover,+DE/Annapolis,+MD/Baltimore,+MD/Washington+D.C.,+DC/Richmond,+VA/Williamsburg,+VA/@39.5003974,-77.3244192,7z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x89e65311f21151a5:0xcc8e4aa8e97d5999!2m2!1d-72.6733723!2d41.7658043!1m5!1m1!1s0x89c24fa5d33f083b:0xc80b8f06e177fe62!2m2!1d-74.0059728!2d40.7127753!1m5!1m1!1s0x89c143482d3dbbb9:0xcf16567f895cd7bc!2m2!1d-74.759717!2d40.2205824!1m5!1m1!1s0x89c6b7d8d4b54beb:0x89f514d88c3e58c1!2m2!1d-75.1652215!2d39.9525839!1m5!1m1!1s0x89c7633375685ead:0xa9e2e447fb006cf0!2m2!1d-75.5243682!2d39.158168!1m5!1m1!1s0x89b7f66570672fd5:0x43f854fdd3a8274b!2m2!1d-76.4921829!2d38.9784453!1m5!1m1!1s0x89c803aed6f483b7:0x44896a84223e758!2m2!1d-76.6121893!2d39.2903848!1m5!1m1!1s0x89b7c6de5af6e45b:0xc2524522d4885d2a!2m2!1d-77.0368707!2d38.9071923!1m5!1m1!1s0x89b111095799c9ed:0xbfd83e6de2423cc5!2m2!1d-77.4360481!2d37.5407246!1m5!1m1!1s0x89b0890a4495aa1b:0xc14b30175e160eaa!2m2!1d-76.7074571!2d37.2707022!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Williamsburg,+VA/Norfolk,+VA/Charlottesville,+VA/Harrisburg,+PA/Buffalo,+NY/Rochester,+NY/Albany,+NY/@40.2169587,-81.2677638,5.7z/data=!4m47!4m46!1m5!1m1!1s0x89b0890a4495aa1b:0xc14b30175e160eaa!2m2!1d-76.7074571!2d37.2707022!1m5!1m1!1s0x89ba973a5322ca45:0xab99107fce7a1e0a!2m2!1d-76.2858726!2d36.8507689!1m5!1m1!1s0x89b3862dea50a48f:0x9086f096c38b74fc!2m2!1d-78.4766781!2d38.0293059!1m5!1m1!1s0x89c8c116b8079e97:0xbb6e42c8128d46d5!2m2!1d-76.8867008!2d40.2731911!1m5!1m1!1s0x89d3126152dfe5a1:0x982304a5181f8171!2m2!1d-78.8783689!2d42.8864468!1m5!1m1!1s0x89d6b3059614b353:0x5a001ffc4125e61e!2m2!1d-77.6088465!2d43.1565779!1m5!1m1!1s0x89de0a34cc4ffb4b:0xe1a16312a0e728c4!2m2!1d-73.7562317!2d42.6525793!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Pittsburgh,+PA/Charleston,+WV/Columbus,+OH/Cincinnati,+OH/Frankfort,+KY/Louisville,+KY/Indianapolis,+IN/Chicago,+IL/Milwaukee,+WI/Madison,+WI/@40.5504662,-89.1782838,6z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x8834f16f48068503:0x8df915a15aa21b34!2m2!1d-79.9958864!2d40.4406248!1m5!1m1!1s0x884f2cce88145d39:0x7661a84704c91b0b!2m2!1d-81.6326234!2d38.3498195!1m5!1m1!1s0x883889c1b990de71:0xe43266f8cfb1b533!2m2!1d-82.9987942!2d39.9611755!1m5!1m1!1s0x884051b1de3821f9:0x69fb7e8be4c09317!2m2!1d-84.5120196!2d39.1031182!1m5!1m1!1s0x8842734c8b1953c9:0x536418a08867425c!2m2!1d-84.8732835!2d38.2009055!1m5!1m1!1s0x88690b1ab35bd511:0xd4d3b4282071fd32!2m2!1d-85.7584557!2d38.2526647!1m5!1m1!1s0x886b50ffa7796a03:0xd68e9df640b9ea7c!2m2!1d-86.158068!2d39.768403!1m5!1m1!1s0x880e2c3cd0f4cbed:0xafe0a6ad09c0c000!2m2!1d-87.6297982!2d41.8781136!1m5!1m1!1s0x880502d7578b47e7:0x445f1922b5417b84!2m2!1d-87.9064736!2d43.0389025!1m5!1m1!1s0x8806536d3a2019ff:0x4e0cfcb5ba484198!2m2!1d-89.4012302!2d43.0730517!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Madison,+Wisconsin/Green+Bay,+WI/Mackinaw+City,+MI/Grand+Rapids,+MI/Lansing,+MI/Frankenmuth,+MI/Detroit,+MI/Cleveland,+OH/Pittsburgh,+PA/@43.1918863,-89.1853954,6z/data=!3m1!4b1!4m59!4m58!1m5!1m1!1s0x8806536d3a2019ff:0x4e0cfcb5ba484198!2m2!1d-89.4012302!2d43.0730517!1m5!1m1!1s0x8802e2e809b380f3:0x6370045214dcf571!2m2!1d-88.0132958!2d44.5133188!1m5!1m1!1s0x4d358b3940a9ad83:0xeac771ab20cc7a7a!2m2!1d-84.7271465!2d45.7774987!1m5!1m1!1s0x88185460bb502815:0xa593aacb1bd3a8d0!2m2!1d-85.6680863!2d42.9633599!1m5!1m1!1s0x8822c01c7f318c37:0x4378b62389029d9e!2m2!1d-84.5555347!2d42.732535!1m5!1m1!1s0x8823f287285df793:0x8050516199bcb01f!2m2!1d-83.7380194!2d43.331691!1m5!1m1!1s0x8824ca0110cb1d75:0x5776864e35b9c4d2!2m2!1d-83.0457538!2d42.331427!1m5!1m1!1s0x8830ef2ee3686b2d:0xed04cb55f7621842!2m2!1d-81.6943605!2d41.49932!1m5!1m1!1s0x8834f16f48068503:0x8df915a15aa21b34!2m2!1d-79.9958864!2d40.4406248!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Washington+D.+C.,+DC/San+Juan,+Puerto+Rico/@28.406847,-80.5870322,5z/data=!3m1!4b1!4m14!4m13!1m5!1m1!1s0x89b7c6de5af6e45b:0xc2524522d4885d2a!2m2!1d-77.0368707!2d38.9071923!1m5!1m1!1s0x8c03686fe268196f:0xad6b7f0f5c935adc!2m2!1d-66.1057355!2d18.4655394!3e4</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Washington+D.+C.,+DC/Honolulu,+HI/@24.8112769,-154.8564566,3z/data=!3m1!4b1!4m14!4m13!1m5!1m1!1s0x89b7c6de5af6e45b:0xc2524522d4885d2a!2m2!1d-77.0368707!2d38.9071923!1m5!1m1!1s0x7c00183b8cc3464d:0x4b28f55ff3a7976c!2m2!1d-157.8583333!2d21.3069444!3e4</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Orlando,+FL/Miami,+FL/Key+West,+FL/Everglades+City,+FL/Tampa,+FL/Tarpon+Springs,+FL/Tallahassee,+FL/Jacksonville,+FL/St.+Augustine,+FL/Orlando,+FL/@27.5091232,-84.4177219,7z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x88e773d8fecdbc77:0xac3b2063ca5bf9e!2m2!1d-81.3789269!2d28.5383832!1m5!1m1!1s0x88d9b0a20ec8c111:0xff96f271ddad4f65!2m2!1d-80.1917902!2d25.7616798!1m5!1m1!1s0x88d1b134ad952377:0x3fcee92f77463b5e!2m2!1d-81.7799871!2d24.5550593!1m5!1m1!1s0x88da5c605ba45fb1:0x92bcf49fb504533a!2m2!1d-81.3850695!2d25.8582443!1m5!1m1!1s0x88c2b782b3b9d1e1:0xa75f1389af96b463!2m2!1d-82.4571776!2d27.950575!1m5!1m1!1s0x88c28cfd6f0942df:0xf4297f0ce0bf24b7!2m2!1d-82.7567679!2d28.1461248!1m5!1m1!1s0x88ec8a5187124b53:0xebee077ad4fdb1f8!2m2!1d-84.2807329!2d30.4382559!1m5!1m1!1s0x88e5b716f1ceafeb:0xc4cd7d3896fcc7e2!2m2!1d-81.655651!2d30.3321838!1m5!1m1!1s0x88e6825775df7f4f:0xc2a183178b276027!2m2!1d-81.3124341!2d29.9012437!1m5!1m1!1s0x88e773d8fecdbc77:0xac3b2063ca5bf9e!2m2!1d-81.3789269!2d28.5383832!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Los+Angeles,+CA/Santa+Barbara,+CA/Solvang,+CA/San+Jose,+CA/San+Francisco,+CA/Sacramento,+CA/Reno,+NV/Virginia+City,+NV/Carson+City,+NV/Fresno,+CA/@36.7777641,-122.6363689,7z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x80c2c75ddc27da13:0xe22fdf6f254608f4!2m2!1d-118.2436849!2d34.0522342!1m5!1m1!1s0x80e914c76f2d83d5:0xc8d13a64d7ba7648!2m2!1d-119.6981901!2d34.4208305!1m5!1m1!1s0x80e954a0fc922285:0x2d0e281b060bc156!2m2!1d-120.1376481!2d34.5958201!1m5!1m1!1s0x808fcae48af93ff5:0xb99d8c0aca9f717b!2m2!1d-121.8863286!2d37.3382082!1m5!1m1!1s0x80859a6d00690021:0x4a501367f076adff!2m2!1d-122.4194155!2d37.7749295!1m5!1m1!1s0x809ac672b28397f9:0x921f6aaa74197fdb!2m2!1d-121.4943996!2d38.5815719!1m5!1m1!1s0x809940ae9292a09d:0x40c5c5ce7438f787!2m2!1d-119.8138027!2d39.5296329!1m5!1m1!1s0x80990faad3daafd1:0x29dad257dc576fa9!2m2!1d-119.6499793!2d39.3095135!1m5!1m1!1s0x80990aa1f8deb471:0xf79c6c82bde23828!2m2!1d-119.7674034!2d39.1637984!1m5!1m1!1s0x80945de1549e4e9d:0x7b12406449a3b811!2m2!1d-119.7871247!2d36.7377981!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Fresno,+CA/Riverside,+CA/San+Diego,+CA/Los+Angeles,+CA/@34.7127545,-120.6716835,7z/data=!3m1!4b1!4m29!4m28!1m5!1m1!1s0x80945de1549e4e9d:0x7b12406449a3b811!2m2!1d-119.7871247!2d36.7377981!1m5!1m1!1s0x80dca6df7ff47dbb:0xf7a1d705135e0ae8!2m2!1d-117.3754942!2d33.9806005!1m5!1m1!1s0x80d9530fad921e4b:0xd3a21fdfd15df79!2m2!1d-117.1610838!2d32.715738!1m5!1m1!1s0x80c2c75ddc27da13:0xe22fdf6f254608f4!2m2!1d-118.2436849!2d34.0522342!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Phoenix,+AZ/Sedona,+AZ/Las+Vegas,+NV/St.+George,+UT/Taos,+NM/Santa+Fe,+NM/Albuquerque,+NM/Lubbock,+TX/El+Paso,+TX/Tucson,+AZ/@34.1501088,-117.508012,5z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x872b12ed50a179cb:0x8c69c7f8354a1bac!2m2!1d-112.0740373!2d33.4483771!1m5!1m1!1s0x872da132f942b00d:0x5548c523fa6c8efd!2m2!1d-111.7609896!2d34.8697395!1m5!1m1!1s0x80beb782a4f57dd1:0x3accd5e6d5b379a3!2m2!1d-115.1398296!2d36.1699412!1m5!1m1!1s0x80ca44d0984939e5:0x531707f2f8a11c1e!2m2!1d-113.5684164!2d37.0965278!1m5!1m1!1s0x871764da7f11fcb1:0x90ea918361a9b782!2m2!1d-105.5733788!2d36.4072134!1m5!1m1!1s0x87185043e79852a9:0x8c902373fd88df40!2m2!1d-105.937799!2d35.6869752!1m5!1m1!1s0x87220addd309837b:0xc0d3f8ceb8d9f6fd!2m2!1d-106.650422!2d35.0843859!1m5!1m1!1s0x86fe12add37ddd39:0x1af0042922e84287!2m2!1d-101.8551665!2d33.5778631!1m5!1m1!1s0x86e73f8bc5fe3b69:0xe39184e3ab9d0222!2m2!1d-106.4850217!2d31.7618778!1m5!1m1!1s0x86d665410b2ced2b:0x73c32d384d16c715!2m2!1d-110.9747108!2d32.2226066!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Tucson,+AZ/Phoenix,+AZ/@32.6659365,-112.3105217,7.68z/data=!4m17!4m16!1m5!1m1!1s0x86d665410b2ced2b:0x73c32d384d16c715!2m2!1d-110.9747108!2d32.2226066!1m5!1m1!1s0x872b12ed50a179cb:0x8c69c7f8354a1bac!2m2!1d-112.0740373!2d33.4483771!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Dallas,+TX/Austin,+TX/San+Antonio,+TX/McAllen,+TX/Houston,+TX/Baton+Rouge,+LA/New+Orleans,+LA/Gulfport,+MS/Jackson,+MS/@29.4197283,-98.2903561,6z/data=!3m1!4b1!4m59!4m58!1m5!1m1!1s0x864c19f77b45974b:0xb9ec9ba4f647678f!2m2!1d-96.7969879!2d32.7766642!1m5!1m1!1s0x8644b599a0cc032f:0x5d9b464bd469d57a!2m2!1d-97.7430608!2d30.267153!1m5!1m1!1s0x865c58af04d00eaf:0x856e13b10a016bc!2m2!1d-98.4936282!2d29.4241219!1m5!1m1!1s0x866576324d9637df:0x2f1d39a9b52c0eb8!2m2!1d-98.2300124!2d26.2034071!1m5!1m1!1s0x8640b8b4488d8501:0xca0d02def365053b!2m2!1d-95.3698028!2d29.7604267!1m5!1m1!1s0x86243867325f74cb:0x2123f1db91579a1d!2m2!1d-91.1871466!2d30.4514677!1m5!1m1!1s0x8620a454b2118265:0xdb065be85e22d3b4!2m2!1d-90.0715323!2d29.9510658!1m5!1m1!1s0x889c166ee80114e5:0xc2614d446e819544!2m2!1d-89.0928155!2d30.3674198!1m5!1m1!1s0x86282b7f90741b21:0x713cde441f038a0!2m2!1d-90.1848103!2d32.2987573!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Jackson,+MS/Little+Rock,+AR/Fayetteville,+AR/Dallas,+TX/@32.5477822,-99.0081422,5.75z/data=!4m29!4m28!1m5!1m1!1s0x86282b7f90741b21:0x713cde441f038a0!2m2!1d-90.1848103!2d32.2987573!1m5!1m1!1s0x87d2a134a11f569b:0x3405f5100df35b17!2m2!1d-92.2895948!2d34.7464809!1m5!1m1!1s0x87c96f7b2fb53e9d:0x4519f069fcb4c8cf!2m2!1d-94.157853!2d36.0662419!1m5!1m1!1s0x864c19f77b45974b:0xb9ec9ba4f647678f!2m2!1d-96.7969879!2d32.7766642!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Atlanta,+GA/Helen,+GA/Nashville,+TN/Knoxville,+TN/Charlotte,+NC/Greensboro,+NC/Raleigh,+NC/Columbia,+SC/Charleston,+SC/Savannah,+GA/@34.0640266,-87.1468938,6z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x88f5045d6993098d:0x66fede2f990b630b!2m2!1d-84.3879824!2d33.7489954!1m5!1m1!1s0x885f37d40b3a2aa1:0x8ed537fed96523a8!2m2!1d-83.7315675!2d34.7014839!1m5!1m1!1s0x8864ec3213eb903d:0x7d3fb9d0a1e9daa0!2m2!1d-86.7816016!2d36.1626638!1m5!1m1!1s0x885c162246ce42a9:0x7bea92dac4f534c5!2m2!1d-83.9207392!2d35.9606384!1m5!1m1!1s0x88541fc4fc381a81:0x884650e6bf43d164!2m2!1d-80.8431267!2d35.2270869!1m5!1m1!1s0x8853193f38c77b79:0x93b9c49478be12c8!2m2!1d-79.7919754!2d36.0726354!1m5!1m1!1s0x89ac5a2f9f51e0f7:0x6790b6528a11f0ad!2m2!1d-78.6381787!2d35.7795897!1m5!1m1!1s0x88f8a5697931d1e3:0xf32808f4b379fa96!2m2!1d-81.0348144!2d34.0007104!1m5!1m1!1s0x88fe7a42dca82477:0x35faf7e0aee1ec6b!2m2!1d-79.9310512!2d32.7764749!1m5!1m1!1s0x88fb75fc78f20659:0x4e0c6751036020bc!2m2!1d-81.091203!2d32.0808989!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Savannah,+GA/Montgomery,+AL/Birmingham,+AL/Atlanta,+GA/@32.8510822,-88.4506539,6z/data=!3m1!4b1!4m29!4m28!1m5!1m1!1s0x88fb75fc78f20659:0x4e0c6751036020bc!2m2!1d-81.091203!2d32.0808989!1m5!1m1!1s0x888e8194b0d481f9:0x8e1b511d354285ff!2m2!1d-86.3077368!2d32.3792233!1m5!1m1!1s0x888911df5885bfd3:0x25507409eaba54ce!2m2!1d-86.8103567!2d33.5185892!1m5!1m1!1s0x88f5045d6993098d:0x66fede2f990b630b!2m2!1d-84.3879824!2d33.7489954!2m1!2b1!3e0!4e1</t>
+  </si>
+  <si>
+    <t>Northeast + MD, DE, VA</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SEA &gt; ANC</t>
+  </si>
+  <si>
+    <t>SFO &gt; HNL</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>old_order</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
     <t>Apr</t>
   </si>
   <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>best_temp_1</t>
-  </si>
-  <si>
-    <t>best_temp_2</t>
-  </si>
-  <si>
-    <t>Aug-Sep</t>
-  </si>
-  <si>
-    <t>Oct-Nov</t>
-  </si>
-  <si>
-    <t>Nov-Dec</t>
-  </si>
-  <si>
-    <t>Jul-Aug</t>
-  </si>
-  <si>
-    <t>May-Jun</t>
-  </si>
-  <si>
-    <t>Apr-May</t>
-  </si>
-  <si>
-    <t>Mar-Apr</t>
-  </si>
-  <si>
-    <t>Jan-Mar</t>
-  </si>
-  <si>
-    <t>Jan-Feb</t>
-  </si>
-  <si>
-    <t>bt1</t>
-  </si>
-  <si>
-    <t>bt2</t>
-  </si>
-  <si>
-    <t>states_etc</t>
-  </si>
-  <si>
-    <t>url1</t>
-  </si>
-  <si>
-    <t>url2</t>
-  </si>
-  <si>
-    <t>url3</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Toronto,+ON,+Canada/Ottawa,+ON,+Canada/Montreal,+QC,+Canada/Qu%C3%A9bec,+QC,+Canada/Montr%C3%A9al,+QC,+Canada/Toronto,+ON,+Canada/@45.1540678,-79.7807285,6z/data=!3m1!4b1!4m41!4m40!1m5!1m1!1s0x89d4cb90d7c63ba5:0x323555502ab4c477!2m2!1d-79.3831843!2d43.653226!1m5!1m1!1s0x4cce05b25f5113af:0x8a6a51e131dd15ed!2m2!1d-75.6971931!2d45.4215296!1m5!1m1!1s0x4cc91a541c64b70d:0x654e3138211fefef!2m2!1d-73.567256!2d45.5016889!1m5!1m1!1s0x4cb8968a05db8893:0x8fc52d63f0e83a03!2m2!1d-71.2079809!2d46.8138783!1m5!1m1!1s0x4cc91a541c64b70d:0x654e3138211fefef!2m2!1d-73.567256!2d45.5016889!1m5!1m1!1s0x89d4cb90d7c63ba5:0x323555502ab4c477!2m2!1d-79.3831843!2d43.653226!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Anchorage,+AK/Fairbanks,+AK/Anchorage,+AK/@63.8441792,-152.4627417,6.14z/data=!4m22!4m21!1m5!1m1!1s0x56c8917604b33f41:0x257dba5aa78468e3!2m2!1d-149.9002778!2d61.2180556!1m5!1m1!1s0x5132454f67fd65a9:0xb3d805e009fef73a!2m2!1d-147.7163888!2d64.8377778!1m5!1m1!1s0x56c8917604b33f41:0x257dba5aa78468e3!2m2!1d-149.9002778!2d61.2180556!2m1!2b1!3e0</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Denver,+CO/Grand+Junction,+CO/Salt+Lake+City,+UT/Boise,+ID/Idaho+Falls,+ID/Helena,+MT/Billings,+MT/Casper,+WY/Cheyenne,+WY/Denver,+Colorado/@42.4201276,-119.4822548,5z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x876b80aa231f17cf:0x118ef4f8278a36d6!2m2!1d-104.990251!2d39.7392358!1m5!1m1!1s0x8746d6e322e77057:0xcc63f451cebf7c56!2m2!1d-108.5506486!2d39.0638705!1m5!1m1!1s0x87523d9488d131ed:0x5b53b7a0484d31ca!2m2!1d-111.8910474!2d40.7607793!1m5!1m1!1s0x54aef172e947b49d:0x9a5b989b36679d9b!2m2!1d-116.2023137!2d43.6150186!1m5!1m1!1s0x5354594e739512b5:0x2311c9fc094c49c9!2m2!1d-112.0407584!2d43.4926607!1m5!1m1!1s0x5343510fedc7db4d:0x214c1d71e3fdf714!2m2!1d-112.0391057!2d46.5891452!1m5!1m1!1s0x53486f8888fa9d97:0x373556d4f179b550!2m2!1d-108.5006904!2d45.7832856!1m5!1m1!1s0x87609365c85e7a63:0x69cefc3917343e53!2m2!1d-106.2980824!2d42.848709!1m5!1m1!1s0x876f38762e73ef93:0xb10a30418f972d2b!2m2!1d-104.8202462!2d41.1399814!1m5!1m1!1s0x876b80aa231f17cf:0x118ef4f8278a36d6!2m2!1d-104.990251!2d39.7392358!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Minneapolis,+MN/Sioux+Falls,+SD/Pierre,+SD/Bismarck,+ND/Fargo,+ND/Winnipeg,+MB,+Canada/Duluth,+MN/Minneapolis,+MN/@46.6404497,-100.928197,6z/data=!3m1!4b1!4m53!4m52!1m5!1m1!1s0x52b333909377bbbd:0x939fc9842f7aee07!2m2!1d-93.2650108!2d44.977753!1m5!1m1!1s0x878eb498e0bdacd7:0xde95ff3aa8b2fccf!2m2!1d-96.731265!2d43.5460223!1m5!1m1!1s0x52d54a64b288f891:0x9e9950165931af92!2m2!1d-100.3537522!2d44.3667876!1m5!1m1!1s0x52d7831257d8e963:0xccaabd12f9bbca93!2m2!1d-100.7837392!2d46.8083268!1m5!1m1!1s0x52c8cb8d84677145:0x81aa30a52791aaca!2m2!1d-96.7898034!2d46.8771863!1m5!1m1!1s0x52ea73fbf91a2b11:0x2b2a1afac6b9ca64!2m2!1d-97.1383744!2d49.895136!1m5!1m1!1s0x52ae527e782e37ff:0x90fdbf76eb580c72!2m2!1d-92.1004852!2d46.7866719!1m5!1m1!1s0x52b333909377bbbd:0x939fc9842f7aee07!2m2!1d-93.2650108!2d44.977753!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Seattle,+WA/Vancouver,+BC,+Canada/Leavenworth,+WA/Spokane,+WA/Redding,+CA/Gold+Beach,+OR/Salem,+OR/Portland,+OR/Olympia,+WA/Seattle,+WA/@44.8374018,-125.1438928,6.26z/data=!4m65!4m64!1m5!1m1!1s0x5490102c93e83355:0x102565466944d59a!2m2!1d-122.3320708!2d47.6062095!1m5!1m1!1s0x548673f143a94fb3:0xbb9196ea9b81f38b!2m2!1d-123.1207375!2d49.2827291!1m5!1m1!1s0x549a4d92a4f8f98d:0xa14f95fb0abfef7e!2m2!1d-120.6614765!2d47.5962326!1m5!1m1!1s0x549e185c30bbe7e5:0xddfcc9d60b84d9b1!2m2!1d-117.4260465!2d47.6587802!1m5!1m1!1s0x54d291d63b4a202f:0x1f3358ec7b360f57!2m2!1d-122.3916754!2d40.5865396!1m5!1m1!1s0x54dace49bf9ae73d:0x121195079f68806d!2m2!1d-124.4217741!2d42.4073334!1m5!1m1!1s0x54bffefcbc4b9c63:0xf93429e08f0357c2!2m2!1d-123.0350963!2d44.9428975!1m5!1m1!1s0x54950b0b7da97427:0x1c36b9e6f6d18591!2m2!1d-122.6783853!2d45.515232!1m5!1m1!1s0x5491c9c1ae285569:0x4f146197e2881b83!2m2!1d-122.9006951!2d47.0378741!1m5!1m1!1s0x5490102c93e83355:0x102565466944d59a!2m2!1d-122.3320708!2d47.6062095!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Albany,+NY/Burlington,+VT/Montpelier,+VT/Concord,+NH/Augusta,+ME/Portland,+ME/Boston,+MA/Barnstable,+MA/Providence,+RI/Hartford,+CT/@41.8793352,-74.5474305,7z/data=!4m65!4m64!1m5!1m1!1s0x89de0a34cc4ffb4b:0xe1a16312a0e728c4!2m2!1d-73.7562317!2d42.6525793!1m5!1m1!1s0x4cca7a55b69b55e5:0xc35fe519720e498e!2m2!1d-73.212072!2d44.4758825!1m5!1m1!1s0x4cb5a78cc44dea05:0x4891e094ceb5836!2m2!1d-72.5753869!2d44.2600593!1m5!1m1!1s0x89e26a96154a8917:0x5a871a0a62528f1!2m2!1d-71.5375718!2d43.2081366!1m5!1m1!1s0x4cb200fdafacc49d:0x79a3488d64220b2d!2m2!1d-69.7794897!2d44.3106241!1m5!1m1!1s0x4cb29c72aab0ee2d:0x7e9db6b53372fa29!2m2!1d-70.2568189!2d43.6590993!1m5!1m1!1s0x89e3652d0d3d311b:0x787cbf240162e8a0!2m2!1d-71.0588801!2d42.3600825!1m5!1m1!1s0x89fb33b67f8ec5e5:0xea7648efbb136d73!2m2!1d-70.3002024!2d41.7003208!1m5!1m1!1s0x89e444e0437e735d:0x69df7c4d48b3b627!2m2!1d-71.4128343!2d41.8239891!1m5!1m1!1s0x89e65311f21151a5:0xcc8e4aa8e97d5999!2m2!1d-72.6733723!2d41.7658043!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Hartford,+CT/New+York,+NY/Trenton,+NJ/Philadelphia,+PA/Dover,+DE/Annapolis,+MD/Baltimore,+MD/Washington+D.C.,+DC/Richmond,+VA/Williamsburg,+VA/@39.5003974,-77.3244192,7z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x89e65311f21151a5:0xcc8e4aa8e97d5999!2m2!1d-72.6733723!2d41.7658043!1m5!1m1!1s0x89c24fa5d33f083b:0xc80b8f06e177fe62!2m2!1d-74.0059728!2d40.7127753!1m5!1m1!1s0x89c143482d3dbbb9:0xcf16567f895cd7bc!2m2!1d-74.759717!2d40.2205824!1m5!1m1!1s0x89c6b7d8d4b54beb:0x89f514d88c3e58c1!2m2!1d-75.1652215!2d39.9525839!1m5!1m1!1s0x89c7633375685ead:0xa9e2e447fb006cf0!2m2!1d-75.5243682!2d39.158168!1m5!1m1!1s0x89b7f66570672fd5:0x43f854fdd3a8274b!2m2!1d-76.4921829!2d38.9784453!1m5!1m1!1s0x89c803aed6f483b7:0x44896a84223e758!2m2!1d-76.6121893!2d39.2903848!1m5!1m1!1s0x89b7c6de5af6e45b:0xc2524522d4885d2a!2m2!1d-77.0368707!2d38.9071923!1m5!1m1!1s0x89b111095799c9ed:0xbfd83e6de2423cc5!2m2!1d-77.4360481!2d37.5407246!1m5!1m1!1s0x89b0890a4495aa1b:0xc14b30175e160eaa!2m2!1d-76.7074571!2d37.2707022!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Williamsburg,+VA/Norfolk,+VA/Charlottesville,+VA/Harrisburg,+PA/Buffalo,+NY/Rochester,+NY/Albany,+NY/@40.2169587,-81.2677638,5.7z/data=!4m47!4m46!1m5!1m1!1s0x89b0890a4495aa1b:0xc14b30175e160eaa!2m2!1d-76.7074571!2d37.2707022!1m5!1m1!1s0x89ba973a5322ca45:0xab99107fce7a1e0a!2m2!1d-76.2858726!2d36.8507689!1m5!1m1!1s0x89b3862dea50a48f:0x9086f096c38b74fc!2m2!1d-78.4766781!2d38.0293059!1m5!1m1!1s0x89c8c116b8079e97:0xbb6e42c8128d46d5!2m2!1d-76.8867008!2d40.2731911!1m5!1m1!1s0x89d3126152dfe5a1:0x982304a5181f8171!2m2!1d-78.8783689!2d42.8864468!1m5!1m1!1s0x89d6b3059614b353:0x5a001ffc4125e61e!2m2!1d-77.6088465!2d43.1565779!1m5!1m1!1s0x89de0a34cc4ffb4b:0xe1a16312a0e728c4!2m2!1d-73.7562317!2d42.6525793!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Pittsburgh,+PA/Charleston,+WV/Columbus,+OH/Cincinnati,+OH/Frankfort,+KY/Louisville,+KY/Indianapolis,+IN/Chicago,+IL/Milwaukee,+WI/Madison,+WI/@40.5504662,-89.1782838,6z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x8834f16f48068503:0x8df915a15aa21b34!2m2!1d-79.9958864!2d40.4406248!1m5!1m1!1s0x884f2cce88145d39:0x7661a84704c91b0b!2m2!1d-81.6326234!2d38.3498195!1m5!1m1!1s0x883889c1b990de71:0xe43266f8cfb1b533!2m2!1d-82.9987942!2d39.9611755!1m5!1m1!1s0x884051b1de3821f9:0x69fb7e8be4c09317!2m2!1d-84.5120196!2d39.1031182!1m5!1m1!1s0x8842734c8b1953c9:0x536418a08867425c!2m2!1d-84.8732835!2d38.2009055!1m5!1m1!1s0x88690b1ab35bd511:0xd4d3b4282071fd32!2m2!1d-85.7584557!2d38.2526647!1m5!1m1!1s0x886b50ffa7796a03:0xd68e9df640b9ea7c!2m2!1d-86.158068!2d39.768403!1m5!1m1!1s0x880e2c3cd0f4cbed:0xafe0a6ad09c0c000!2m2!1d-87.6297982!2d41.8781136!1m5!1m1!1s0x880502d7578b47e7:0x445f1922b5417b84!2m2!1d-87.9064736!2d43.0389025!1m5!1m1!1s0x8806536d3a2019ff:0x4e0cfcb5ba484198!2m2!1d-89.4012302!2d43.0730517!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Madison,+Wisconsin/Green+Bay,+WI/Mackinaw+City,+MI/Grand+Rapids,+MI/Lansing,+MI/Frankenmuth,+MI/Detroit,+MI/Cleveland,+OH/Pittsburgh,+PA/@43.1918863,-89.1853954,6z/data=!3m1!4b1!4m59!4m58!1m5!1m1!1s0x8806536d3a2019ff:0x4e0cfcb5ba484198!2m2!1d-89.4012302!2d43.0730517!1m5!1m1!1s0x8802e2e809b380f3:0x6370045214dcf571!2m2!1d-88.0132958!2d44.5133188!1m5!1m1!1s0x4d358b3940a9ad83:0xeac771ab20cc7a7a!2m2!1d-84.7271465!2d45.7774987!1m5!1m1!1s0x88185460bb502815:0xa593aacb1bd3a8d0!2m2!1d-85.6680863!2d42.9633599!1m5!1m1!1s0x8822c01c7f318c37:0x4378b62389029d9e!2m2!1d-84.5555347!2d42.732535!1m5!1m1!1s0x8823f287285df793:0x8050516199bcb01f!2m2!1d-83.7380194!2d43.331691!1m5!1m1!1s0x8824ca0110cb1d75:0x5776864e35b9c4d2!2m2!1d-83.0457538!2d42.331427!1m5!1m1!1s0x8830ef2ee3686b2d:0xed04cb55f7621842!2m2!1d-81.6943605!2d41.49932!1m5!1m1!1s0x8834f16f48068503:0x8df915a15aa21b34!2m2!1d-79.9958864!2d40.4406248!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Washington+D.+C.,+DC/San+Juan,+Puerto+Rico/@28.406847,-80.5870322,5z/data=!3m1!4b1!4m14!4m13!1m5!1m1!1s0x89b7c6de5af6e45b:0xc2524522d4885d2a!2m2!1d-77.0368707!2d38.9071923!1m5!1m1!1s0x8c03686fe268196f:0xad6b7f0f5c935adc!2m2!1d-66.1057355!2d18.4655394!3e4</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Washington+D.+C.,+DC/Honolulu,+HI/@24.8112769,-154.8564566,3z/data=!3m1!4b1!4m14!4m13!1m5!1m1!1s0x89b7c6de5af6e45b:0xc2524522d4885d2a!2m2!1d-77.0368707!2d38.9071923!1m5!1m1!1s0x7c00183b8cc3464d:0x4b28f55ff3a7976c!2m2!1d-157.8583333!2d21.3069444!3e4</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Orlando,+FL/Miami,+FL/Key+West,+FL/Everglades+City,+FL/Tampa,+FL/Tarpon+Springs,+FL/Tallahassee,+FL/Jacksonville,+FL/St.+Augustine,+FL/Orlando,+FL/@27.5091232,-84.4177219,7z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x88e773d8fecdbc77:0xac3b2063ca5bf9e!2m2!1d-81.3789269!2d28.5383832!1m5!1m1!1s0x88d9b0a20ec8c111:0xff96f271ddad4f65!2m2!1d-80.1917902!2d25.7616798!1m5!1m1!1s0x88d1b134ad952377:0x3fcee92f77463b5e!2m2!1d-81.7799871!2d24.5550593!1m5!1m1!1s0x88da5c605ba45fb1:0x92bcf49fb504533a!2m2!1d-81.3850695!2d25.8582443!1m5!1m1!1s0x88c2b782b3b9d1e1:0xa75f1389af96b463!2m2!1d-82.4571776!2d27.950575!1m5!1m1!1s0x88c28cfd6f0942df:0xf4297f0ce0bf24b7!2m2!1d-82.7567679!2d28.1461248!1m5!1m1!1s0x88ec8a5187124b53:0xebee077ad4fdb1f8!2m2!1d-84.2807329!2d30.4382559!1m5!1m1!1s0x88e5b716f1ceafeb:0xc4cd7d3896fcc7e2!2m2!1d-81.655651!2d30.3321838!1m5!1m1!1s0x88e6825775df7f4f:0xc2a183178b276027!2m2!1d-81.3124341!2d29.9012437!1m5!1m1!1s0x88e773d8fecdbc77:0xac3b2063ca5bf9e!2m2!1d-81.3789269!2d28.5383832!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Los+Angeles,+CA/Santa+Barbara,+CA/Solvang,+CA/San+Jose,+CA/San+Francisco,+CA/Sacramento,+CA/Reno,+NV/Virginia+City,+NV/Carson+City,+NV/Fresno,+CA/@36.7777641,-122.6363689,7z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x80c2c75ddc27da13:0xe22fdf6f254608f4!2m2!1d-118.2436849!2d34.0522342!1m5!1m1!1s0x80e914c76f2d83d5:0xc8d13a64d7ba7648!2m2!1d-119.6981901!2d34.4208305!1m5!1m1!1s0x80e954a0fc922285:0x2d0e281b060bc156!2m2!1d-120.1376481!2d34.5958201!1m5!1m1!1s0x808fcae48af93ff5:0xb99d8c0aca9f717b!2m2!1d-121.8863286!2d37.3382082!1m5!1m1!1s0x80859a6d00690021:0x4a501367f076adff!2m2!1d-122.4194155!2d37.7749295!1m5!1m1!1s0x809ac672b28397f9:0x921f6aaa74197fdb!2m2!1d-121.4943996!2d38.5815719!1m5!1m1!1s0x809940ae9292a09d:0x40c5c5ce7438f787!2m2!1d-119.8138027!2d39.5296329!1m5!1m1!1s0x80990faad3daafd1:0x29dad257dc576fa9!2m2!1d-119.6499793!2d39.3095135!1m5!1m1!1s0x80990aa1f8deb471:0xf79c6c82bde23828!2m2!1d-119.7674034!2d39.1637984!1m5!1m1!1s0x80945de1549e4e9d:0x7b12406449a3b811!2m2!1d-119.7871247!2d36.7377981!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Fresno,+CA/Riverside,+CA/San+Diego,+CA/Los+Angeles,+CA/@34.7127545,-120.6716835,7z/data=!3m1!4b1!4m29!4m28!1m5!1m1!1s0x80945de1549e4e9d:0x7b12406449a3b811!2m2!1d-119.7871247!2d36.7377981!1m5!1m1!1s0x80dca6df7ff47dbb:0xf7a1d705135e0ae8!2m2!1d-117.3754942!2d33.9806005!1m5!1m1!1s0x80d9530fad921e4b:0xd3a21fdfd15df79!2m2!1d-117.1610838!2d32.715738!1m5!1m1!1s0x80c2c75ddc27da13:0xe22fdf6f254608f4!2m2!1d-118.2436849!2d34.0522342!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Phoenix,+AZ/Sedona,+AZ/Las+Vegas,+NV/St.+George,+UT/Taos,+NM/Santa+Fe,+NM/Albuquerque,+NM/Lubbock,+TX/El+Paso,+TX/Tucson,+AZ/@34.1501088,-117.508012,5z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x872b12ed50a179cb:0x8c69c7f8354a1bac!2m2!1d-112.0740373!2d33.4483771!1m5!1m1!1s0x872da132f942b00d:0x5548c523fa6c8efd!2m2!1d-111.7609896!2d34.8697395!1m5!1m1!1s0x80beb782a4f57dd1:0x3accd5e6d5b379a3!2m2!1d-115.1398296!2d36.1699412!1m5!1m1!1s0x80ca44d0984939e5:0x531707f2f8a11c1e!2m2!1d-113.5684164!2d37.0965278!1m5!1m1!1s0x871764da7f11fcb1:0x90ea918361a9b782!2m2!1d-105.5733788!2d36.4072134!1m5!1m1!1s0x87185043e79852a9:0x8c902373fd88df40!2m2!1d-105.937799!2d35.6869752!1m5!1m1!1s0x87220addd309837b:0xc0d3f8ceb8d9f6fd!2m2!1d-106.650422!2d35.0843859!1m5!1m1!1s0x86fe12add37ddd39:0x1af0042922e84287!2m2!1d-101.8551665!2d33.5778631!1m5!1m1!1s0x86e73f8bc5fe3b69:0xe39184e3ab9d0222!2m2!1d-106.4850217!2d31.7618778!1m5!1m1!1s0x86d665410b2ced2b:0x73c32d384d16c715!2m2!1d-110.9747108!2d32.2226066!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Tucson,+AZ/Phoenix,+AZ/@32.6659365,-112.3105217,7.68z/data=!4m17!4m16!1m5!1m1!1s0x86d665410b2ced2b:0x73c32d384d16c715!2m2!1d-110.9747108!2d32.2226066!1m5!1m1!1s0x872b12ed50a179cb:0x8c69c7f8354a1bac!2m2!1d-112.0740373!2d33.4483771!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Dallas,+TX/Austin,+TX/San+Antonio,+TX/McAllen,+TX/Houston,+TX/Baton+Rouge,+LA/New+Orleans,+LA/Gulfport,+MS/Jackson,+MS/@29.4197283,-98.2903561,6z/data=!3m1!4b1!4m59!4m58!1m5!1m1!1s0x864c19f77b45974b:0xb9ec9ba4f647678f!2m2!1d-96.7969879!2d32.7766642!1m5!1m1!1s0x8644b599a0cc032f:0x5d9b464bd469d57a!2m2!1d-97.7430608!2d30.267153!1m5!1m1!1s0x865c58af04d00eaf:0x856e13b10a016bc!2m2!1d-98.4936282!2d29.4241219!1m5!1m1!1s0x866576324d9637df:0x2f1d39a9b52c0eb8!2m2!1d-98.2300124!2d26.2034071!1m5!1m1!1s0x8640b8b4488d8501:0xca0d02def365053b!2m2!1d-95.3698028!2d29.7604267!1m5!1m1!1s0x86243867325f74cb:0x2123f1db91579a1d!2m2!1d-91.1871466!2d30.4514677!1m5!1m1!1s0x8620a454b2118265:0xdb065be85e22d3b4!2m2!1d-90.0715323!2d29.9510658!1m5!1m1!1s0x889c166ee80114e5:0xc2614d446e819544!2m2!1d-89.0928155!2d30.3674198!1m5!1m1!1s0x86282b7f90741b21:0x713cde441f038a0!2m2!1d-90.1848103!2d32.2987573!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Jackson,+MS/Little+Rock,+AR/Fayetteville,+AR/Dallas,+TX/@32.5477822,-99.0081422,5.75z/data=!4m29!4m28!1m5!1m1!1s0x86282b7f90741b21:0x713cde441f038a0!2m2!1d-90.1848103!2d32.2987573!1m5!1m1!1s0x87d2a134a11f569b:0x3405f5100df35b17!2m2!1d-92.2895948!2d34.7464809!1m5!1m1!1s0x87c96f7b2fb53e9d:0x4519f069fcb4c8cf!2m2!1d-94.157853!2d36.0662419!1m5!1m1!1s0x864c19f77b45974b:0xb9ec9ba4f647678f!2m2!1d-96.7969879!2d32.7766642!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Atlanta,+GA/Helen,+GA/Nashville,+TN/Knoxville,+TN/Charlotte,+NC/Greensboro,+NC/Raleigh,+NC/Columbia,+SC/Charleston,+SC/Savannah,+GA/@34.0640266,-87.1468938,6z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x88f5045d6993098d:0x66fede2f990b630b!2m2!1d-84.3879824!2d33.7489954!1m5!1m1!1s0x885f37d40b3a2aa1:0x8ed537fed96523a8!2m2!1d-83.7315675!2d34.7014839!1m5!1m1!1s0x8864ec3213eb903d:0x7d3fb9d0a1e9daa0!2m2!1d-86.7816016!2d36.1626638!1m5!1m1!1s0x885c162246ce42a9:0x7bea92dac4f534c5!2m2!1d-83.9207392!2d35.9606384!1m5!1m1!1s0x88541fc4fc381a81:0x884650e6bf43d164!2m2!1d-80.8431267!2d35.2270869!1m5!1m1!1s0x8853193f38c77b79:0x93b9c49478be12c8!2m2!1d-79.7919754!2d36.0726354!1m5!1m1!1s0x89ac5a2f9f51e0f7:0x6790b6528a11f0ad!2m2!1d-78.6381787!2d35.7795897!1m5!1m1!1s0x88f8a5697931d1e3:0xf32808f4b379fa96!2m2!1d-81.0348144!2d34.0007104!1m5!1m1!1s0x88fe7a42dca82477:0x35faf7e0aee1ec6b!2m2!1d-79.9310512!2d32.7764749!1m5!1m1!1s0x88fb75fc78f20659:0x4e0c6751036020bc!2m2!1d-81.091203!2d32.0808989!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Savannah,+GA/Montgomery,+AL/Birmingham,+AL/Atlanta,+GA/@32.8510822,-88.4506539,6z/data=!3m1!4b1!4m29!4m28!1m5!1m1!1s0x88fb75fc78f20659:0x4e0c6751036020bc!2m2!1d-81.091203!2d32.0808989!1m5!1m1!1s0x888e8194b0d481f9:0x8e1b511d354285ff!2m2!1d-86.3077368!2d32.3792233!1m5!1m1!1s0x888911df5885bfd3:0x25507409eaba54ce!2m2!1d-86.8103567!2d33.5185892!1m5!1m1!1s0x88f5045d6993098d:0x66fede2f990b630b!2m2!1d-84.3879824!2d33.7489954!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>Northeast + MD, DE, VA</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>SEA &gt; ANC</t>
-  </si>
-  <si>
-    <t>SFO &gt; HNL</t>
-  </si>
-  <si>
-    <t>DC Two Hour Radius</t>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Mar</t>
   </si>
 </sst>
 </file>
@@ -3203,11 +3191,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4038DB3-8426-7C4B-9410-FFCEAF90185D}">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3216,8 +3204,8 @@
     <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -3245,10 +3233,10 @@
         <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4782,11 +4770,11 @@
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1">
         <v>-90.071532300000001</v>
@@ -5281,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="12">
-        <f t="shared" ref="G67:G130" si="3">((1-E67)-(1-F67))+((1-F67)*2)</f>
+        <f t="shared" ref="G67:G129" si="3">((1-E67)-(1-F67))+((1-F67)*2)</f>
         <v>1</v>
       </c>
       <c r="H67" s="1">
@@ -6539,7 +6527,7 @@
         <v>78</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f t="shared" ref="C108:C134" si="5">RIGHT(B108,2)</f>
+        <f t="shared" ref="C108:C129" si="5">RIGHT(B108,2)</f>
         <v>TX</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -7211,161 +7199,6 @@
       </c>
       <c r="I129" s="1">
         <v>41.139981400000003</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>130</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C130" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>DC</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E130" s="1">
-        <v>1</v>
-      </c>
-      <c r="F130" s="1">
-        <v>1</v>
-      </c>
-      <c r="G130" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H130" s="1">
-        <v>-77.036870699999994</v>
-      </c>
-      <c r="I130" s="1">
-        <v>38.907192299999998</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>131</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C131" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>MD</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-      <c r="F131" s="1">
-        <v>1</v>
-      </c>
-      <c r="G131" s="1">
-        <f t="shared" ref="G131:G134" si="6">((1-E131)-(1-F131))+((1-F131)*2)</f>
-        <v>0</v>
-      </c>
-      <c r="H131" s="1">
-        <v>-76.492182900000003</v>
-      </c>
-      <c r="I131" s="1">
-        <v>38.978445299999997</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <v>132</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C132" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>MD</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E132" s="5">
-        <v>1</v>
-      </c>
-      <c r="F132" s="5">
-        <v>0</v>
-      </c>
-      <c r="G132" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H132" s="1">
-        <v>-76.612189299999997</v>
-      </c>
-      <c r="I132" s="1">
-        <v>39.290384799999998</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
-        <v>133</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C133" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>DE</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E133" s="5">
-        <v>0</v>
-      </c>
-      <c r="F133" s="5">
-        <v>0</v>
-      </c>
-      <c r="G133" s="5">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H133" s="1">
-        <v>-75.524368199999998</v>
-      </c>
-      <c r="I133" s="1">
-        <v>39.158168000000003</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>134</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>PA</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1</v>
-      </c>
-      <c r="F134" s="1">
-        <v>1</v>
-      </c>
-      <c r="G134" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H134" s="1">
-        <v>-76.8867008</v>
-      </c>
-      <c r="I134" s="1">
-        <v>40.273191099999998</v>
       </c>
     </row>
   </sheetData>
@@ -7383,10 +7216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9631FB04-418B-8B42-963F-59DBC5B62716}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7401,10 +7234,12 @@
     <col min="8" max="10" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
@@ -7418,192 +7253,205 @@
         <v>234</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>237</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1">
-        <v>1056</v>
+        <v>719</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D16" si="0">IF(B2="Drive",0,2)+_xlfn.CEILING.MATH(C2/200,1)+K2</f>
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(3*2)+3-2</f>
+        <v>7</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1056</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="H3" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="K3" s="1">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="L2" s="1">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" s="1">
-        <v>719</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="K3" s="1">
-        <f>(3*2)+3-2</f>
+      <c r="L3" s="1">
         <v>7</v>
       </c>
-      <c r="L3" s="1">
-        <v>6</v>
-      </c>
       <c r="M3" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C4" s="1">
-        <v>2211</v>
+        <v>1610</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" s="1">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1">
-        <v>1610</v>
+        <f>1097+1202+(237*2)</f>
+        <v>2773</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -7614,8 +7462,11 @@
       <c r="M5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -7629,120 +7480,128 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>241</v>
+      <c r="E6" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>220</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M6" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="C7" s="1">
-        <v>2403</v>
+        <v>2211</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>250</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>269</v>
+        <v>213</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M7" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C8" s="1">
-        <f>1097+1202+(237*2)</f>
-        <v>2773</v>
+        <v>2403</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>243</v>
+      <c r="E8" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>262</v>
+        <v>274</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
@@ -7756,11 +7615,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>243</v>
+      <c r="E9" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>218</v>
@@ -7772,13 +7631,16 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -7793,23 +7655,23 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>243</v>
+      <c r="E10" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>221</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -7818,84 +7680,90 @@
         <v>5</v>
       </c>
       <c r="M10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="N10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="1">
+        <f>1951+(278*2)</f>
+        <v>2507</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>11</v>
+      </c>
+      <c r="N11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <f>2228+113</f>
         <v>2341</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E12" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="J12" s="23" t="s">
         <v>251</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" s="1">
-        <f>1951+(278*2)</f>
-        <v>2507</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>262</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -7904,10 +7772,13 @@
         <v>4</v>
       </c>
       <c r="M12" s="1">
+        <v>11</v>
+      </c>
+      <c r="N12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>137</v>
       </c>
@@ -7922,160 +7793,172 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>252</v>
+      <c r="E13" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M13" s="1">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="C14" s="1">
-        <v>1384</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>253</v>
+      <c r="E14" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="1">
-        <v>0</v>
+        <f>(3*2)+3-2</f>
+        <v>7</v>
       </c>
       <c r="L14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" s="1">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N14" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>254</v>
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="1">
-        <f>(3*2)+3-2</f>
-        <v>7</v>
+        <f>(1*2)+3-2</f>
+        <v>3</v>
       </c>
       <c r="L15" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1384</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>254</v>
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="1">
-        <f>(1*2)+3-2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M16" s="1">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="N16" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
-    <sortCondition ref="L2:L16"/>
-    <sortCondition descending="1" ref="K2:K16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N16">
+    <sortCondition ref="M2:M16"/>
+    <sortCondition descending="1" ref="L2:L16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/A_Input/city_list.xlsx
+++ b/A_Input/city_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s8/Documents/Coding/us_travels/A_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B413607E-1851-4445-B105-41B491D9EE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2B2A14-F299-C045-AFD9-D5B0424D05AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34280" yWindow="2120" windowWidth="23380" windowHeight="15340" xr2:uid="{724935DA-9DBD-364F-92E1-C441C90E19CB}"/>
+    <workbookView xWindow="-38040" yWindow="-1780" windowWidth="21560" windowHeight="17320" activeTab="1" xr2:uid="{724935DA-9DBD-364F-92E1-C441C90E19CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" r:id="rId1"/>
@@ -864,9 +864,6 @@
     <t>https://www.google.com/maps/dir/Savannah,+GA/Montgomery,+AL/Birmingham,+AL/Atlanta,+GA/@32.8510822,-88.4506539,6z/data=!3m1!4b1!4m29!4m28!1m5!1m1!1s0x88fb75fc78f20659:0x4e0c6751036020bc!2m2!1d-81.091203!2d32.0808989!1m5!1m1!1s0x888e8194b0d481f9:0x8e1b511d354285ff!2m2!1d-86.3077368!2d32.3792233!1m5!1m1!1s0x888911df5885bfd3:0x25507409eaba54ce!2m2!1d-86.8103567!2d33.5185892!1m5!1m1!1s0x88f5045d6993098d:0x66fede2f990b630b!2m2!1d-84.3879824!2d33.7489954!2m1!2b1!3e0!4e1</t>
   </si>
   <si>
-    <t>Northeast + MD, DE, VA</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -898,6 +895,9 @@
   </si>
   <si>
     <t>Mar</t>
+  </si>
+  <si>
+    <t>Northeast + DC, DE, MD, VA</t>
   </si>
 </sst>
 </file>
@@ -3193,9 +3193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4038DB3-8426-7C4B-9410-FFCEAF90185D}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4040,28 +4040,28 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="4" t="str">
+      <c r="C28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DE</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
         <v>-75.524368199999998</v>
@@ -7218,8 +7218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9631FB04-418B-8B42-963F-59DBC5B62716}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7280,7 +7280,7 @@
         <v>245</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -7288,7 +7288,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1">
         <v>719</v>
@@ -7298,7 +7298,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>241</v>
@@ -7344,7 +7344,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>241</v>
@@ -7390,7 +7390,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>241</v>
@@ -7425,7 +7425,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="1">
         <f>1097+1202+(237*2)</f>
@@ -7481,7 +7481,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>239</v>
@@ -7561,7 +7561,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="1">
         <v>2403</v>
@@ -7577,7 +7577,7 @@
         <v>239</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>256</v>
@@ -7656,10 +7656,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>221</v>
@@ -7691,7 +7691,7 @@
         <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="1">
         <f>1951+(278*2)</f>
@@ -7702,10 +7702,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>215</v>
@@ -7748,10 +7748,10 @@
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>219</v>
@@ -7794,7 +7794,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>238</v>
@@ -7829,7 +7829,7 @@
         <v>222</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -7839,10 +7839,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>164</v>
@@ -7883,10 +7883,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>192</v>
@@ -7927,10 +7927,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>162</v>

--- a/A_Input/city_list.xlsx
+++ b/A_Input/city_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s8/Documents/Coding/us_travels/A_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2B2A14-F299-C045-AFD9-D5B0424D05AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A661A834-D85D-3548-AE32-32CCB60BB3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38040" yWindow="-1780" windowWidth="21560" windowHeight="17320" activeTab="1" xr2:uid="{724935DA-9DBD-364F-92E1-C441C90E19CB}"/>
+    <workbookView xWindow="-31600" yWindow="-1820" windowWidth="16520" windowHeight="21100" activeTab="1" xr2:uid="{724935DA-9DBD-364F-92E1-C441C90E19CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Analysis" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cities!$A$1:$F$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cities!$A$1:$J$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="305">
   <si>
     <t>Num</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Pierre SD</t>
   </si>
   <si>
-    <t>Helen GA</t>
-  </si>
-  <si>
     <t>Knoxville TN</t>
   </si>
   <si>
@@ -819,21 +816,12 @@
     <t>https://www.google.com/maps/dir/Williamsburg,+VA/Norfolk,+VA/Charlottesville,+VA/Harrisburg,+PA/Buffalo,+NY/Rochester,+NY/Albany,+NY/@40.2169587,-81.2677638,5.7z/data=!4m47!4m46!1m5!1m1!1s0x89b0890a4495aa1b:0xc14b30175e160eaa!2m2!1d-76.7074571!2d37.2707022!1m5!1m1!1s0x89ba973a5322ca45:0xab99107fce7a1e0a!2m2!1d-76.2858726!2d36.8507689!1m5!1m1!1s0x89b3862dea50a48f:0x9086f096c38b74fc!2m2!1d-78.4766781!2d38.0293059!1m5!1m1!1s0x89c8c116b8079e97:0xbb6e42c8128d46d5!2m2!1d-76.8867008!2d40.2731911!1m5!1m1!1s0x89d3126152dfe5a1:0x982304a5181f8171!2m2!1d-78.8783689!2d42.8864468!1m5!1m1!1s0x89d6b3059614b353:0x5a001ffc4125e61e!2m2!1d-77.6088465!2d43.1565779!1m5!1m1!1s0x89de0a34cc4ffb4b:0xe1a16312a0e728c4!2m2!1d-73.7562317!2d42.6525793!2m1!2b1!3e0!4e1</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/dir/Pittsburgh,+PA/Charleston,+WV/Columbus,+OH/Cincinnati,+OH/Frankfort,+KY/Louisville,+KY/Indianapolis,+IN/Chicago,+IL/Milwaukee,+WI/Madison,+WI/@40.5504662,-89.1782838,6z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x8834f16f48068503:0x8df915a15aa21b34!2m2!1d-79.9958864!2d40.4406248!1m5!1m1!1s0x884f2cce88145d39:0x7661a84704c91b0b!2m2!1d-81.6326234!2d38.3498195!1m5!1m1!1s0x883889c1b990de71:0xe43266f8cfb1b533!2m2!1d-82.9987942!2d39.9611755!1m5!1m1!1s0x884051b1de3821f9:0x69fb7e8be4c09317!2m2!1d-84.5120196!2d39.1031182!1m5!1m1!1s0x8842734c8b1953c9:0x536418a08867425c!2m2!1d-84.8732835!2d38.2009055!1m5!1m1!1s0x88690b1ab35bd511:0xd4d3b4282071fd32!2m2!1d-85.7584557!2d38.2526647!1m5!1m1!1s0x886b50ffa7796a03:0xd68e9df640b9ea7c!2m2!1d-86.158068!2d39.768403!1m5!1m1!1s0x880e2c3cd0f4cbed:0xafe0a6ad09c0c000!2m2!1d-87.6297982!2d41.8781136!1m5!1m1!1s0x880502d7578b47e7:0x445f1922b5417b84!2m2!1d-87.9064736!2d43.0389025!1m5!1m1!1s0x8806536d3a2019ff:0x4e0cfcb5ba484198!2m2!1d-89.4012302!2d43.0730517!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Madison,+Wisconsin/Green+Bay,+WI/Mackinaw+City,+MI/Grand+Rapids,+MI/Lansing,+MI/Frankenmuth,+MI/Detroit,+MI/Cleveland,+OH/Pittsburgh,+PA/@43.1918863,-89.1853954,6z/data=!3m1!4b1!4m59!4m58!1m5!1m1!1s0x8806536d3a2019ff:0x4e0cfcb5ba484198!2m2!1d-89.4012302!2d43.0730517!1m5!1m1!1s0x8802e2e809b380f3:0x6370045214dcf571!2m2!1d-88.0132958!2d44.5133188!1m5!1m1!1s0x4d358b3940a9ad83:0xeac771ab20cc7a7a!2m2!1d-84.7271465!2d45.7774987!1m5!1m1!1s0x88185460bb502815:0xa593aacb1bd3a8d0!2m2!1d-85.6680863!2d42.9633599!1m5!1m1!1s0x8822c01c7f318c37:0x4378b62389029d9e!2m2!1d-84.5555347!2d42.732535!1m5!1m1!1s0x8823f287285df793:0x8050516199bcb01f!2m2!1d-83.7380194!2d43.331691!1m5!1m1!1s0x8824ca0110cb1d75:0x5776864e35b9c4d2!2m2!1d-83.0457538!2d42.331427!1m5!1m1!1s0x8830ef2ee3686b2d:0xed04cb55f7621842!2m2!1d-81.6943605!2d41.49932!1m5!1m1!1s0x8834f16f48068503:0x8df915a15aa21b34!2m2!1d-79.9958864!2d40.4406248!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/dir/Washington+D.+C.,+DC/San+Juan,+Puerto+Rico/@28.406847,-80.5870322,5z/data=!3m1!4b1!4m14!4m13!1m5!1m1!1s0x89b7c6de5af6e45b:0xc2524522d4885d2a!2m2!1d-77.0368707!2d38.9071923!1m5!1m1!1s0x8c03686fe268196f:0xad6b7f0f5c935adc!2m2!1d-66.1057355!2d18.4655394!3e4</t>
   </si>
   <si>
     <t>https://www.google.com/maps/dir/Washington+D.+C.,+DC/Honolulu,+HI/@24.8112769,-154.8564566,3z/data=!3m1!4b1!4m14!4m13!1m5!1m1!1s0x89b7c6de5af6e45b:0xc2524522d4885d2a!2m2!1d-77.0368707!2d38.9071923!1m5!1m1!1s0x7c00183b8cc3464d:0x4b28f55ff3a7976c!2m2!1d-157.8583333!2d21.3069444!3e4</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/dir/Orlando,+FL/Miami,+FL/Key+West,+FL/Everglades+City,+FL/Tampa,+FL/Tarpon+Springs,+FL/Tallahassee,+FL/Jacksonville,+FL/St.+Augustine,+FL/Orlando,+FL/@27.5091232,-84.4177219,7z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x88e773d8fecdbc77:0xac3b2063ca5bf9e!2m2!1d-81.3789269!2d28.5383832!1m5!1m1!1s0x88d9b0a20ec8c111:0xff96f271ddad4f65!2m2!1d-80.1917902!2d25.7616798!1m5!1m1!1s0x88d1b134ad952377:0x3fcee92f77463b5e!2m2!1d-81.7799871!2d24.5550593!1m5!1m1!1s0x88da5c605ba45fb1:0x92bcf49fb504533a!2m2!1d-81.3850695!2d25.8582443!1m5!1m1!1s0x88c2b782b3b9d1e1:0xa75f1389af96b463!2m2!1d-82.4571776!2d27.950575!1m5!1m1!1s0x88c28cfd6f0942df:0xf4297f0ce0bf24b7!2m2!1d-82.7567679!2d28.1461248!1m5!1m1!1s0x88ec8a5187124b53:0xebee077ad4fdb1f8!2m2!1d-84.2807329!2d30.4382559!1m5!1m1!1s0x88e5b716f1ceafeb:0xc4cd7d3896fcc7e2!2m2!1d-81.655651!2d30.3321838!1m5!1m1!1s0x88e6825775df7f4f:0xc2a183178b276027!2m2!1d-81.3124341!2d29.9012437!1m5!1m1!1s0x88e773d8fecdbc77:0xac3b2063ca5bf9e!2m2!1d-81.3789269!2d28.5383832!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/dir/Los+Angeles,+CA/Santa+Barbara,+CA/Solvang,+CA/San+Jose,+CA/San+Francisco,+CA/Sacramento,+CA/Reno,+NV/Virginia+City,+NV/Carson+City,+NV/Fresno,+CA/@36.7777641,-122.6363689,7z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x80c2c75ddc27da13:0xe22fdf6f254608f4!2m2!1d-118.2436849!2d34.0522342!1m5!1m1!1s0x80e914c76f2d83d5:0xc8d13a64d7ba7648!2m2!1d-119.6981901!2d34.4208305!1m5!1m1!1s0x80e954a0fc922285:0x2d0e281b060bc156!2m2!1d-120.1376481!2d34.5958201!1m5!1m1!1s0x808fcae48af93ff5:0xb99d8c0aca9f717b!2m2!1d-121.8863286!2d37.3382082!1m5!1m1!1s0x80859a6d00690021:0x4a501367f076adff!2m2!1d-122.4194155!2d37.7749295!1m5!1m1!1s0x809ac672b28397f9:0x921f6aaa74197fdb!2m2!1d-121.4943996!2d38.5815719!1m5!1m1!1s0x809940ae9292a09d:0x40c5c5ce7438f787!2m2!1d-119.8138027!2d39.5296329!1m5!1m1!1s0x80990faad3daafd1:0x29dad257dc576fa9!2m2!1d-119.6499793!2d39.3095135!1m5!1m1!1s0x80990aa1f8deb471:0xf79c6c82bde23828!2m2!1d-119.7674034!2d39.1637984!1m5!1m1!1s0x80945de1549e4e9d:0x7b12406449a3b811!2m2!1d-119.7871247!2d36.7377981!2m1!2b1!3e0!4e1</t>
   </si>
   <si>
@@ -858,12 +846,6 @@
     <t>lat</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/dir/Atlanta,+GA/Helen,+GA/Nashville,+TN/Knoxville,+TN/Charlotte,+NC/Greensboro,+NC/Raleigh,+NC/Columbia,+SC/Charleston,+SC/Savannah,+GA/@34.0640266,-87.1468938,6z/data=!3m1!4b1!4m65!4m64!1m5!1m1!1s0x88f5045d6993098d:0x66fede2f990b630b!2m2!1d-84.3879824!2d33.7489954!1m5!1m1!1s0x885f37d40b3a2aa1:0x8ed537fed96523a8!2m2!1d-83.7315675!2d34.7014839!1m5!1m1!1s0x8864ec3213eb903d:0x7d3fb9d0a1e9daa0!2m2!1d-86.7816016!2d36.1626638!1m5!1m1!1s0x885c162246ce42a9:0x7bea92dac4f534c5!2m2!1d-83.9207392!2d35.9606384!1m5!1m1!1s0x88541fc4fc381a81:0x884650e6bf43d164!2m2!1d-80.8431267!2d35.2270869!1m5!1m1!1s0x8853193f38c77b79:0x93b9c49478be12c8!2m2!1d-79.7919754!2d36.0726354!1m5!1m1!1s0x89ac5a2f9f51e0f7:0x6790b6528a11f0ad!2m2!1d-78.6381787!2d35.7795897!1m5!1m1!1s0x88f8a5697931d1e3:0xf32808f4b379fa96!2m2!1d-81.0348144!2d34.0007104!1m5!1m1!1s0x88fe7a42dca82477:0x35faf7e0aee1ec6b!2m2!1d-79.9310512!2d32.7764749!1m5!1m1!1s0x88fb75fc78f20659:0x4e0c6751036020bc!2m2!1d-81.091203!2d32.0808989!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Savannah,+GA/Montgomery,+AL/Birmingham,+AL/Atlanta,+GA/@32.8510822,-88.4506539,6z/data=!3m1!4b1!4m29!4m28!1m5!1m1!1s0x88fb75fc78f20659:0x4e0c6751036020bc!2m2!1d-81.091203!2d32.0808989!1m5!1m1!1s0x888e8194b0d481f9:0x8e1b511d354285ff!2m2!1d-86.3077368!2d32.3792233!1m5!1m1!1s0x888911df5885bfd3:0x25507409eaba54ce!2m2!1d-86.8103567!2d33.5185892!1m5!1m1!1s0x88f5045d6993098d:0x66fede2f990b630b!2m2!1d-84.3879824!2d33.7489954!2m1!2b1!3e0!4e1</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -873,31 +855,106 @@
     <t>SFO &gt; HNL</t>
   </si>
   <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>old_order</t>
-  </si>
-  <si>
     <t>Nov</t>
   </si>
   <si>
     <t>May</t>
   </si>
   <si>
-    <t>Feb</t>
-  </si>
-  <si>
     <t>Apr</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
     <t>Northeast + DC, DE, MD, VA</t>
+  </si>
+  <si>
+    <t>Jul-Aug</t>
+  </si>
+  <si>
+    <t>Sep-Oct</t>
+  </si>
+  <si>
+    <t>Jan-Mar</t>
+  </si>
+  <si>
+    <t>May-Jun</t>
+  </si>
+  <si>
+    <t>Feb-Jun</t>
+  </si>
+  <si>
+    <t>Oct-Nov</t>
+  </si>
+  <si>
+    <t>Mar-Apr</t>
+  </si>
+  <si>
+    <t>Jan-Feb</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Arlington,+VA/Pittsburgh,+PA/Cleveland,+OH/Detroit,+MI/Frankenmuth,+MI/Lansing,+MI/Grand+Rapids,+MI/Chicago,+IL/Milwaukee,+WI/Green+Bay,+WI/@41.6170191,-87.0709756,6z/data=!3m1!4b1!4m64!4m63!1m5!1m1!1s0x89b7b69d7ba7a70f:0xf8cf6fc845f6b093!2m2!1d-77.1067698!2d38.8799697!1m5!1m1!1s0x8834f16f48068503:0x8df915a15aa21b34!2m2!1d-79.9958864!2d40.4406248!1m5!1m1!1s0x8830ef2ee3686b2d:0xed04cb55f7621842!2m2!1d-81.6943605!2d41.49932!1m5!1m1!1s0x8824ca0110cb1d75:0x5776864e35b9c4d2!2m2!1d-83.0457538!2d42.331427!1m5!1m1!1s0x8823f287285df793:0x8050516199bcb01f!2m2!1d-83.7380194!2d43.331691!1m5!1m1!1s0x8822c01c7f318c37:0x4378b62389029d9e!2m2!1d-84.5555347!2d42.732535!1m5!1m1!1s0x88185460bb502815:0xa593aacb1bd3a8d0!2m2!1d-85.6680863!2d42.9633599!1m5!1m1!1s0x880e2c3cd0f4cbed:0xafe0a6ad09c0c000!2m2!1d-87.6297982!2d41.8781136!1m5!1m1!1s0x880502d7578b47e7:0x445f1922b5417b84!2m2!1d-87.9064736!2d43.0389025!1m5!1m1!1s0x8802e2e809b380f3:0x6370045214dcf571!2m2!1d-88.0132958!2d44.5133188!2m1!2b1!3e0</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Green+Bay,+WI/Madison,+WI/Indianapolis,+IN/Louisville,+KY/Frankfort,+KY/Cincinnati,+OH/Columbus,+OH/Charleston,+WV/Pittsburgh,+PA/Arlington,+VA/@41.2514431,-87.7529857,6z/data=!3m1!4b1!4m64!4m63!1m5!1m1!1s0x8802e2e809b380f3:0x6370045214dcf571!2m2!1d-88.0132958!2d44.5133188!1m5!1m1!1s0x8806536d3a2019ff:0x4e0cfcb5ba484198!2m2!1d-89.4007501!2d43.0721661!1m5!1m1!1s0x886b50ffa7796a03:0xd68e9df640b9ea7c!2m2!1d-86.158068!2d39.768403!1m5!1m1!1s0x88690b1ab35bd511:0xd4d3b4282071fd32!2m2!1d-85.7584557!2d38.2526647!1m5!1m1!1s0x8842734c8b1953c9:0x536418a08867425c!2m2!1d-84.8732835!2d38.2009055!1m5!1m1!1s0x884051b1de3821f9:0x69fb7e8be4c09317!2m2!1d-84.5120196!2d39.1031182!1m5!1m1!1s0x883889c1b990de71:0xe43266f8cfb1b533!2m2!1d-82.9987942!2d39.9611755!1m5!1m1!1s0x884f2cce88145d39:0x7661a84704c91b0b!2m2!1d-81.6326234!2d38.3498195!1m5!1m1!1s0x8834f16f48068503:0x8df915a15aa21b34!2m2!1d-79.9958864!2d40.4406248!1m5!1m1!1s0x89b7b69d7ba7a70f:0xf8cf6fc845f6b093!2m2!1d-77.1067698!2d38.8799697!2m1!2b1!3e0</t>
+  </si>
+  <si>
+    <t>Frankenmuth MI</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Arlington,+VA/Greensboro,+NC/Charlotte,+NC/Knoxville,+TN/Nashville,+TN/Atlanta,+GA/Birmingham,+AL/Montgomery,+AL/Savannah,+GA/@35.1575205,-90.9666986,5z/data=!3m1!4b1!4m56!4m55!1m5!1m1!1s0x89b7b69d7ba7a70f:0xf8cf6fc845f6b093!2m2!1d-77.1067698!2d38.8799697!1m5!1m1!1s0x8853193f38c77b79:0x93b9c49478be12c8!2m2!1d-79.7919754!2d36.0726354!1m5!1m1!1s0x88541fc4fc381a81:0x884650e6bf43d164!2m2!1d-80.8431267!2d35.2270869!1m5!1m1!1s0x885c162246ce42a9:0x7bea92dac4f534c5!2m2!1d-83.9207392!2d35.9606384!1m5!1m1!1s0x8864ec3213eb903d:0x7d3fb9d0a1e9daa0!2m2!1d-86.7816016!2d36.1626638!1m5!1m1!1s0x88f5045d6993098d:0x66fede2f990b630b!2m2!1d-84.3879824!2d33.7489954!1m5!1m1!1s0x888911df5885bfd3:0x25507409eaba54ce!2m2!1d-86.8103567!2d33.5185892!1m5!1m1!1s0x888e8194b0d481f9:0x8e1b511d354285ff!2m2!1d-86.3077368!2d32.3792233!1m5!1m1!1s0x88fb75fc78f20659:0x4e0c6751036020bc!2m2!1d-81.091203!2d32.0808989!3e0</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Savannah,+GA/Charleston,+SC/Columbia,+SC/Raleigh,+NC/Arlington,+VA/@35.4655519,-81.3347427,7z/data=!3m1!4b1!4m32!4m31!1m5!1m1!1s0x88fb75fc78f20659:0x4e0c6751036020bc!2m2!1d-81.091203!2d32.0808989!1m5!1m1!1s0x88fe7a42dca82477:0x35faf7e0aee1ec6b!2m2!1d-79.9310512!2d32.7764749!1m5!1m1!1s0x88f8a5697931d1e3:0xf32808f4b379fa96!2m2!1d-81.0348144!2d34.0007104!1m5!1m1!1s0x89ac5a2f9f51e0f7:0x6790b6528a11f0ad!2m2!1d-78.6381787!2d35.7795897!1m5!1m1!1s0x89b7b69d7ba7a70f:0xf8cf6fc845f6b093!2m2!1d-77.1067698!2d38.8799697!3e0</t>
+  </si>
+  <si>
+    <t>Photo_Date</t>
+  </si>
+  <si>
+    <t>2021-06</t>
+  </si>
+  <si>
+    <t>2021-10</t>
+  </si>
+  <si>
+    <t>2022-03</t>
+  </si>
+  <si>
+    <t>2021-05</t>
+  </si>
+  <si>
+    <t>2022-04</t>
+  </si>
+  <si>
+    <t>2021-08</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-00</t>
+  </si>
+  <si>
+    <t>Currently</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Great Lakes</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Pct</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/Sanford,+FL/Orlando,+FL/Miami,+FL/Key+West,+FL/Everglades+City,+FL/Tampa,+FL/Tarpon+Springs,+FL/Tallahassee,+FL/Jacksonville,+FL/St.+Augustine,+FL/@27.4662724,-86.6569807,6z/data=!3m1!4b1!4m64!4m63!1m5!1m1!1s0x88e7130dec2388f7:0xc3317e4e9680554c!2m2!1d-81.269453!2d28.8028612!1m5!1m1!1s0x88e773d8fecdbc77:0xac3b2063ca5bf9e!2m2!1d-81.3789269!2d28.5383832!1m5!1m1!1s0x88d9b0a20ec8c111:0xff96f271ddad4f65!2m2!1d-80.1917902!2d25.7616798!1m5!1m1!1s0x88d1b134ad952377:0x3fcee92f77463b5e!2m2!1d-81.7799871!2d24.5550593!1m5!1m1!1s0x88da5c605ba45fb1:0x92bcf49fb504533a!2m2!1d-81.3850695!2d25.8582443!1m5!1m1!1s0x88c2b782b3b9d1e1:0xa75f1389af96b463!2m2!1d-82.4571776!2d27.950575!1m5!1m1!1s0x88c28cfd6f0942df:0xf4297f0ce0bf24b7!2m2!1d-82.7567679!2d28.1461248!1m5!1m1!1s0x88ec8a5187124b53:0xebee077ad4fdb1f8!2m2!1d-84.2807329!2d30.4382559!1m5!1m1!1s0x88e5b716f1ceafeb:0xc4cd7d3896fcc7e2!2m2!1d-81.655651!2d30.3321838!1m5!1m1!1s0x88e6825775df7f4f:0xc2a183178b276027!2m2!1d-81.3124341!2d29.9012437!2m1!2b1!3e0</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/St.+Augustine,+FL/Sanford,+FL/@29.3490527,-81.754888,9z/data=!3m1!4b1!4m16!4m15!1m5!1m1!1s0x88e6825775df7f4f:0xc2a183178b276027!2m2!1d-81.3124341!2d29.9012437!1m5!1m1!1s0x88e7130dec2388f7:0xc3317e4e9680554c!2m2!1d-81.269453!2d28.8028612!2m1!2b1!3e0</t>
   </si>
 </sst>
 </file>
@@ -908,7 +965,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -939,27 +996,20 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="9"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,8 +1028,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1030,23 +1098,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1054,10 +1132,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,10 +1142,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1080,6 +1154,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2436,198 +2530,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E27A4137-60C9-F84F-8E12-E06B21833754}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="16">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of Visit" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Photo" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Score" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="8">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FF45142-A6BF-5043-B5DB-C6D8F20294A7}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A19:C74" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -2882,6 +2784,198 @@
     <dataField name="Max of Visit" fld="4" subtotal="max" baseField="0" baseItem="0"/>
     <dataField name="Max of Photo" fld="5" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E27A4137-60C9-F84F-8E12-E06B21833754}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Visit" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Photo" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Score" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="8">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3191,11 +3285,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4038DB3-8426-7C4B-9410-FFCEAF90185D}">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3207,10 +3301,12 @@
     <col min="5" max="5" width="6.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="10.83203125" style="23"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3221,37 +3317,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>RIGHT(B2,2)</f>
+        <f t="shared" ref="C2:C12" si="0">RIGHT(B2,2)</f>
         <v>AK</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -3260,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f>((1-E2)-(1-F2))+((1-F2)*2)</f>
+        <f t="shared" ref="G2:G33" si="1">((1-E2)-(1-F2))+((1-F2)*2)</f>
         <v>2</v>
       </c>
       <c r="H2" s="1">
@@ -3270,19 +3369,19 @@
         <v>61.2180556</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>RIGHT(B3,2)</f>
+        <f t="shared" si="0"/>
         <v>AK</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -3291,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="0">((1-E3)-(1-F3))+((1-F3)*2)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H3" s="1">
@@ -3301,200 +3400,214 @@
         <v>64.837777799999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>RIGHT(B4,2)</f>
-        <v>AL</v>
+        <f t="shared" si="0"/>
+        <v>CA</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>-86.8103567</v>
+        <v>-119.78712470000001</v>
       </c>
       <c r="I4" s="1">
-        <v>33.518589200000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36.737798099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>RIGHT(B5,2)</f>
-        <v>AL</v>
+        <f t="shared" si="0"/>
+        <v>CA</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>-86.307736800000001</v>
+        <v>-118.24368490000001</v>
       </c>
       <c r="I5" s="1">
-        <v>32.3792233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34.052234200000001</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CA</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>-73.554167000000007</v>
+        <v>-117.37549420000001</v>
       </c>
       <c r="I6" s="1">
-        <v>45.508889000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33.980600500000001</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CA</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>-75.697193100000007</v>
+        <v>-121.49439959999999</v>
       </c>
       <c r="I7" s="1">
-        <v>45.4215296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38.5815719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CA</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>-71.207980899999995</v>
+        <v>-117.1610838</v>
       </c>
       <c r="I8" s="1">
-        <v>46.813878299999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32.715738000000002</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CA</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>-79.383184299999996</v>
+        <v>-122.4194155</v>
       </c>
       <c r="I9" s="1">
-        <v>43.653225999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37.774929499999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CA</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3503,59 +3616,60 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>-123.1207375</v>
+        <v>-121.8863286</v>
       </c>
       <c r="I10" s="1">
-        <v>49.282729099999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37.338208199999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>134</v>
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CA</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>-97.138374400000004</v>
+        <v>-119.69819010000001</v>
       </c>
       <c r="I11" s="1">
-        <v>49.895136000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34.420830500000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f t="shared" ref="C12:C43" si="1">RIGHT(B12,2)</f>
-        <v>AR</v>
+        <f t="shared" si="0"/>
+        <v>NV</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3564,761 +3678,770 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>-94.157853000000003</v>
+        <v>-119.76740340000001</v>
       </c>
       <c r="I12" s="1">
-        <v>36.066241900000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.163798399999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="2" t="str">
+        <v>118</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>AR</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>-92.289594800000003</v>
+        <v>-73.554167000000007</v>
       </c>
       <c r="I13" s="1">
-        <v>34.746480900000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45.508889000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="2" t="str">
+        <v>119</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>AZ</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>-112.0740373</v>
+        <v>-75.697193100000007</v>
       </c>
       <c r="I14" s="1">
-        <v>33.448377100000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45.4215296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="2" t="str">
+        <v>120</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>AZ</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>-110.9747108</v>
+        <v>-71.207980899999995</v>
       </c>
       <c r="I15" s="1">
-        <v>32.222606599999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46.813878299999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="2" t="str">
+        <v>121</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>CA</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>-119.78712470000001</v>
+        <v>-79.383184299999996</v>
       </c>
       <c r="I16" s="1">
-        <v>36.737798099999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43.653225999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="str">
+        <f t="shared" ref="C17:C62" si="2">RIGHT(B17,2)</f>
+        <v>FL</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>CA</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>-118.24368490000001</v>
+        <v>-81.655651000000006</v>
       </c>
       <c r="I17" s="1">
-        <v>34.052234200000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30.332183799999999</v>
+      </c>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>CA</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>-117.37549420000001</v>
+        <v>-81.7841722</v>
       </c>
       <c r="I18" s="1">
-        <v>33.980600500000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24.555418299999999</v>
+      </c>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>CA</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>-121.49439959999999</v>
+        <v>-80.1917902</v>
       </c>
       <c r="I19" s="1">
-        <v>38.5815719</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25.7616798</v>
+      </c>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>CA</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>-117.1610838</v>
+        <v>-81.378926899999996</v>
       </c>
       <c r="I20" s="1">
-        <v>32.715738000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28.538383199999998</v>
+      </c>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>CA</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>-122.4194155</v>
+        <v>-84.280732900000004</v>
       </c>
       <c r="I21" s="1">
-        <v>37.774929499999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30.438255900000001</v>
+      </c>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>FL</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>CA</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>-121.8863286</v>
+        <v>-82.457177599999994</v>
       </c>
       <c r="I22" s="1">
-        <v>37.338208199999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27.950575000000001</v>
+      </c>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>AL</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>CA</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>-119.69819010000001</v>
+        <v>-86.8103567</v>
       </c>
       <c r="I23" s="1">
-        <v>34.420830500000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33.518589200000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>AL</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="1"/>
-        <v>CO</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H24" s="1">
-        <v>-104.990251</v>
+        <v>-86.307736800000001</v>
       </c>
       <c r="I24" s="1">
-        <v>39.739235800000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32.3792233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>GA</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>CO</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>-108.5506486</v>
+        <v>-84.387982399999999</v>
       </c>
       <c r="I25" s="1">
-        <v>39.0638705</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33.748995399999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>GA</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="1"/>
-        <v>CT</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>-72.673372299999997</v>
+        <v>-81.091202999999993</v>
       </c>
       <c r="I26" s="1">
-        <v>41.765804299999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32.080898900000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>NC</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>DC</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>-77.036870699999994</v>
+        <v>-80.843126699999999</v>
       </c>
       <c r="I27" s="1">
-        <v>38.907192299999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35.227086900000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>NC</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="1"/>
-        <v>DE</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>-75.524368199999998</v>
+        <v>-79.791975399999998</v>
       </c>
       <c r="I28" s="1">
-        <v>39.158168000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36.072635400000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>NC</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="1"/>
-        <v>FL</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>-81.655651000000006</v>
+        <v>-78.638178699999997</v>
       </c>
       <c r="I29" s="1">
-        <v>30.332183799999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35.779589700000002</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>FL</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>-81.7841722</v>
+        <v>-79.931051199999999</v>
       </c>
       <c r="I30" s="1">
-        <v>24.555418299999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32.776474899999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>FL</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H31" s="1">
-        <v>-80.1917902</v>
+        <v>-81.034814400000002</v>
       </c>
       <c r="I31" s="1">
-        <v>25.7616798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34.000710400000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="1"/>
-        <v>FL</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1">
-        <v>-81.378926899999996</v>
+        <v>-83.9207392</v>
       </c>
       <c r="I32" s="1">
-        <v>28.538383199999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35.960638400000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="1"/>
-        <v>FL</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1">
-        <v>-84.280732900000004</v>
+        <v>-86.781601600000002</v>
       </c>
       <c r="I33" s="1">
-        <v>30.438255900000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36.162663799999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FL</v>
+        <f t="shared" si="2"/>
+        <v>HI</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="G34:G65" si="3">((1-E34)-(1-F34))+((1-F34)*2)</f>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>-82.457177599999994</v>
+        <v>-157.8583333</v>
       </c>
       <c r="I34" s="1">
-        <v>27.950575000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.306944399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GA</v>
+        <f t="shared" si="2"/>
+        <v>IL</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H35" s="1">
-        <v>-84.387982399999999</v>
+        <v>-87.629798199999996</v>
       </c>
       <c r="I35" s="1">
-        <v>33.748995399999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41.878113599999999</v>
+      </c>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GA</v>
+        <f t="shared" si="2"/>
+        <v>IN</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>-83.731567499999997</v>
+        <v>-86.158068</v>
       </c>
       <c r="I36" s="1">
-        <v>34.701483899999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.768402999999999</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4326,73 +4449,79 @@
         <v>61</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GA</v>
+        <f t="shared" si="2"/>
+        <v>KY</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>-81.091202999999993</v>
+        <v>-84.873283499999999</v>
       </c>
       <c r="I37" s="1">
-        <v>32.080898900000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38.200905499999998</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>HI</v>
+        <f t="shared" si="2"/>
+        <v>KY</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>-157.8583333</v>
+        <v>-85.758455699999999</v>
       </c>
       <c r="I38" s="1">
-        <v>21.306944399999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38.252664699999997</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>IA</v>
+        <f t="shared" si="2"/>
+        <v>MI</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -4401,60 +4530,62 @@
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H39" s="1">
-        <v>-90.577636699999999</v>
+        <v>-83.0457538</v>
       </c>
       <c r="I39" s="1">
-        <v>41.523643700000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42.331426999999998</v>
+      </c>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>IA</v>
+        <f t="shared" si="2"/>
+        <v>MI</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H40" s="1">
-        <v>-93.6249593</v>
+        <v>-83.738056</v>
       </c>
       <c r="I40" s="1">
-        <v>41.586835299999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43.331667000000003</v>
+      </c>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>ID</v>
+        <f t="shared" si="2"/>
+        <v>MI</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -4463,29 +4594,30 @@
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H41" s="1">
-        <v>-116.2023137</v>
+        <v>-85.668086299999999</v>
       </c>
       <c r="I41" s="1">
-        <v>43.615018599999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42.9633599</v>
+      </c>
+      <c r="J41" s="25"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>ID</v>
+        <f t="shared" si="2"/>
+        <v>MI</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -4494,91 +4626,96 @@
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H42" s="1">
-        <v>-112.0407584</v>
+        <v>-84.555534699999995</v>
       </c>
       <c r="I42" s="1">
-        <v>43.492660700000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42.732534999999999</v>
+      </c>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>IL</v>
+        <f t="shared" si="2"/>
+        <v>OH</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>-87.629798199999996</v>
+        <v>-84.512019600000002</v>
       </c>
       <c r="I43" s="1">
-        <v>41.878113599999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.103118199999997</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f t="shared" ref="C44:C75" si="2">RIGHT(B44,2)</f>
-        <v>IL</v>
+        <f t="shared" si="2"/>
+        <v>OH</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H44" s="1">
-        <v>-89.650148099999996</v>
+        <v>-81.694360500000002</v>
       </c>
       <c r="I44" s="1">
-        <v>39.781721300000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41.499319999999997</v>
+      </c>
+      <c r="J44" s="25"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>IN</v>
+        <v>OH</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -4587,60 +4724,64 @@
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>-86.158068</v>
+        <v>-82.998794200000006</v>
       </c>
       <c r="I45" s="1">
-        <v>39.768402999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.961175500000003</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>KS</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>135</v>
+        <v>PA</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
-        <v>-95.675157600000006</v>
+        <v>-79.995886400000003</v>
       </c>
       <c r="I46" s="1">
-        <v>39.047345100000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40.440624800000002</v>
+      </c>
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>KS</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>135</v>
+        <v>WI</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -4649,153 +4790,159 @@
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H47" s="1">
-        <v>-97.330053000000007</v>
+        <v>-88.013295799999995</v>
       </c>
       <c r="I47" s="1">
-        <v>37.687176100000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44.5133188</v>
+      </c>
+      <c r="J47" s="25"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>KY</v>
+        <v>WI</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H48" s="1">
-        <v>-84.873283499999999</v>
+        <v>-89.401230200000001</v>
       </c>
       <c r="I48" s="1">
-        <v>38.200905499999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43.073051700000001</v>
+      </c>
+      <c r="J48" s="25"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>KY</v>
+        <v>WI</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H49" s="1">
-        <v>-85.758455699999999</v>
+        <v>-87.906473599999998</v>
       </c>
       <c r="I49" s="1">
-        <v>38.252664699999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43.038902499999999</v>
+      </c>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>LA</v>
+        <v>WV</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>-91.187146600000005</v>
+        <v>-81.6326234</v>
       </c>
       <c r="I50" s="1">
-        <v>30.451467699999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38.349819500000002</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>LA</v>
+        <v>AR</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H51" s="1">
-        <v>-90.071532300000001</v>
+        <v>-94.157853000000003</v>
       </c>
       <c r="I51" s="1">
-        <v>29.951065799999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36.066241900000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>MA</v>
+        <v>AR</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -4804,60 +4951,60 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H52" s="1">
-        <v>-70.300202400000003</v>
+        <v>-92.289594800000003</v>
       </c>
       <c r="I52" s="1">
-        <v>41.7003208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34.746480900000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>MA</v>
+        <v>LA</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H53" s="1">
-        <v>-71.058880099999996</v>
+        <v>-91.187146600000005</v>
       </c>
       <c r="I53" s="1">
-        <v>42.360082499999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30.451467699999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -4866,215 +5013,219 @@
         <v>1</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>-76.492182900000003</v>
+        <v>-90.071532300000001</v>
       </c>
       <c r="I54" s="1">
-        <v>38.978445299999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+        <v>29.951065799999999</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="4" t="str">
+      <c r="B55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>MD</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>MS</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H55" s="1">
-        <v>-76.612189299999997</v>
+        <v>-89.0928155</v>
       </c>
       <c r="I55" s="1">
-        <v>39.290384799999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30.3674198</v>
+      </c>
+      <c r="J55" s="24"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ME</v>
+        <v>MS</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H56" s="1">
-        <v>-69.779489699999999</v>
+        <v>-90.184810299999995</v>
       </c>
       <c r="I56" s="1">
-        <v>44.310624099999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32.298757299999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ME</v>
+        <v>TN</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H57" s="1">
-        <v>-70.256818899999999</v>
+        <v>-90.048980099999994</v>
       </c>
       <c r="I57" s="1">
-        <v>43.659099300000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35.149534299999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>MI</v>
+        <v>TX</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H58" s="1">
-        <v>-83.0457538</v>
+        <v>-97.743060799999995</v>
       </c>
       <c r="I58" s="1">
-        <v>42.331426999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30.267153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>MI</v>
+        <v>TX</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
-        <v>-85.668086299999999</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="I59" s="1">
-        <v>42.9633599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32.776664199999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>MI</v>
+        <v>TX</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H60" s="1">
-        <v>-84.555534699999995</v>
+        <v>-95.369802800000002</v>
       </c>
       <c r="I60" s="1">
-        <v>42.732534999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29.7604267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>MN</v>
+        <v>TX</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -5083,153 +5234,152 @@
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H61" s="1">
-        <v>-92.100485199999994</v>
+        <v>-98.230012400000007</v>
       </c>
       <c r="I61" s="1">
-        <v>46.786671900000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26.2034071</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>MN</v>
+        <v>TX</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H62" s="1">
-        <v>-93.265010799999999</v>
+        <v>-98.493628200000003</v>
       </c>
       <c r="I62" s="1">
-        <v>44.977753</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29.424121899999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>MO</v>
+        <v>123</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H63" s="1">
-        <v>-92.173516399999997</v>
+        <v>-97.138374400000004</v>
       </c>
       <c r="I63" s="1">
-        <v>38.576701700000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49.895136000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>MO</v>
+        <f t="shared" ref="C64:C95" si="4">RIGHT(B64,2)</f>
+        <v>MN</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H64" s="1">
-        <v>-94.578566699999996</v>
+        <v>-92.100485199999994</v>
       </c>
       <c r="I64" s="1">
-        <v>39.099726500000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46.786671900000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>MO</v>
+        <f t="shared" si="4"/>
+        <v>MN</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H65" s="1">
-        <v>-90.199404200000004</v>
+        <v>-93.265010799999999</v>
       </c>
       <c r="I65" s="1">
-        <v>38.627002500000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44.977753</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>MS</v>
+        <f t="shared" si="4"/>
+        <v>ND</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -5238,60 +5388,60 @@
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G66:G97" si="5">((1-E66)-(1-F66))+((1-F66)*2)</f>
         <v>2</v>
       </c>
       <c r="H66" s="1">
-        <v>-89.0928155</v>
+        <v>-100.7837392</v>
       </c>
       <c r="I66" s="1">
-        <v>30.3674198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="11">
+        <v>46.808326800000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MS</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="12">
-        <v>1</v>
-      </c>
-      <c r="F67" s="12">
-        <v>0</v>
-      </c>
-      <c r="G67" s="12">
-        <f t="shared" ref="G67:G129" si="3">((1-E67)-(1-F67))+((1-F67)*2)</f>
-        <v>1</v>
+      <c r="B67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ND</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H67" s="1">
-        <v>-90.184810299999995</v>
+        <v>-96.789803399999997</v>
       </c>
       <c r="I67" s="1">
-        <v>32.298757299999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46.877186299999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>MT</v>
+        <f t="shared" si="4"/>
+        <v>SD</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -5300,29 +5450,29 @@
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H68" s="1">
-        <v>-108.5006904</v>
+        <v>-100.3537522</v>
       </c>
       <c r="I68" s="1">
-        <v>45.783285599999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44.366787600000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>MT</v>
+        <f t="shared" si="4"/>
+        <v>SD</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -5331,91 +5481,95 @@
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H69" s="1">
-        <v>-112.03910569999999</v>
+        <v>-96.731264999999993</v>
       </c>
       <c r="I69" s="1">
-        <v>46.589145199999997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43.546022299999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>NC</v>
+        <f t="shared" si="4"/>
+        <v>IA</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H70" s="1">
-        <v>-80.843126699999999</v>
+        <v>-90.577636699999999</v>
       </c>
       <c r="I70" s="1">
-        <v>35.227086900000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41.523643700000001</v>
+      </c>
+      <c r="J70" s="25"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>NC</v>
+        <f t="shared" si="4"/>
+        <v>IA</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>-79.791975399999998</v>
+        <v>-93.6249593</v>
       </c>
       <c r="I71" s="1">
-        <v>36.072635400000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41.586835299999997</v>
+      </c>
+      <c r="J71" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>NC</v>
+        <f t="shared" si="4"/>
+        <v>IL</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -5424,60 +5578,66 @@
         <v>1</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>-78.638178699999997</v>
+        <v>-89.650148099999996</v>
       </c>
       <c r="I72" s="1">
-        <v>35.779589700000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.781721300000001</v>
+      </c>
+      <c r="J72" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ND</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>133</v>
+        <f t="shared" si="4"/>
+        <v>KS</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H73" s="1">
-        <v>-100.7837392</v>
+        <v>-95.675157600000006</v>
       </c>
       <c r="I73" s="1">
-        <v>46.808326800000003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.047345100000001</v>
+      </c>
+      <c r="J73" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ND</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>133</v>
+        <f t="shared" si="4"/>
+        <v>KS</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -5486,29 +5646,29 @@
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H74" s="1">
-        <v>-96.789803399999997</v>
+        <v>-97.330053000000007</v>
       </c>
       <c r="I74" s="1">
-        <v>46.877186299999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37.687176100000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>NE</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>135</v>
+        <f t="shared" si="4"/>
+        <v>MO</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -5517,29 +5677,32 @@
         <v>1</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <v>-96.702595500000001</v>
+        <v>-92.173516399999997</v>
       </c>
       <c r="I75" s="1">
-        <v>40.813616000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38.576701700000001</v>
+      </c>
+      <c r="J75" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f t="shared" ref="C76:C107" si="4">RIGHT(B76,2)</f>
-        <v>NE</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>135</v>
+        <f t="shared" si="4"/>
+        <v>MO</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -5548,29 +5711,32 @@
         <v>1</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>-95.934503399999997</v>
+        <v>-94.578566699999996</v>
       </c>
       <c r="I76" s="1">
-        <v>41.2565369</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.099726500000003</v>
+      </c>
+      <c r="J76" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C77" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NH</v>
+        <v>MO</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -5579,29 +5745,32 @@
         <v>1</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <v>-71.537571799999995</v>
+        <v>-90.199404200000004</v>
       </c>
       <c r="I77" s="1">
-        <v>43.208136600000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38.627002500000003</v>
+      </c>
+      <c r="J77" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C78" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NJ</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>206</v>
+        <v>NE</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -5610,60 +5779,66 @@
         <v>1</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <v>-74.759716999999995</v>
+        <v>-96.702595500000001</v>
       </c>
       <c r="I78" s="1">
-        <v>40.220582399999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40.813616000000003</v>
+      </c>
+      <c r="J78" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NM</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>139</v>
+        <v>NE</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H79" s="1">
-        <v>-106.65042200000001</v>
+        <v>-95.934503399999997</v>
       </c>
       <c r="I79" s="1">
-        <v>35.084385900000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41.2565369</v>
+      </c>
+      <c r="J79" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NM</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>139</v>
+        <v>OK</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -5672,29 +5847,29 @@
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H80" s="1">
-        <v>-105.937799</v>
+        <v>-97.5164276</v>
       </c>
       <c r="I80" s="1">
-        <v>35.686975199999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35.467560200000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NM</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>139</v>
+        <v>OK</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -5703,184 +5878,184 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H81" s="1">
-        <v>-105.5733788</v>
+        <v>-95.992774999999995</v>
       </c>
       <c r="I81" s="1">
-        <v>36.407213400000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36.153981600000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C82" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NV</v>
+        <v>AZ</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="H82" s="1">
-        <v>-119.76740340000001</v>
+        <v>-112.0740373</v>
       </c>
       <c r="I82" s="1">
-        <v>39.163798399999997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33.448377100000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NV</v>
+        <v>AZ</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H83" s="1">
-        <v>-115.1398296</v>
+        <v>-110.9747108</v>
       </c>
       <c r="I83" s="1">
-        <v>36.169941199999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32.222606599999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NY</v>
+        <v>NM</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="H84" s="1">
-        <v>-73.756231700000001</v>
+        <v>-106.65042200000001</v>
       </c>
       <c r="I84" s="1">
-        <v>42.652579299999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35.084385900000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="C85" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NY</v>
+        <v>NM</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H85" s="1">
-        <v>-78.878368899999998</v>
+        <v>-105.937799</v>
       </c>
       <c r="I85" s="1">
-        <v>42.886446800000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35.686975199999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C86" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NY</v>
+        <v>NM</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H86" s="1">
-        <v>-74.005972799999995</v>
+        <v>-105.5733788</v>
       </c>
       <c r="I86" s="1">
-        <v>40.712775299999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36.407213400000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NY</v>
+        <v>NV</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -5889,215 +6064,227 @@
         <v>1</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>-77.608846499999999</v>
+        <v>-115.1398296</v>
       </c>
       <c r="I87" s="1">
-        <v>43.156577900000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36.169941199999997</v>
+      </c>
+      <c r="J87" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>OH</v>
+        <v>TX</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
       </c>
       <c r="F88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="H88" s="1">
-        <v>-84.512019600000002</v>
+        <v>-106.4850217</v>
       </c>
       <c r="I88" s="1">
-        <v>39.103118199999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31.761877800000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>OH</v>
+        <v>TX</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H89" s="1">
-        <v>-81.694360500000002</v>
+        <v>-101.8551665</v>
       </c>
       <c r="I89" s="1">
-        <v>41.499319999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33.577863100000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>OH</v>
+        <v>UT</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H90" s="1">
-        <v>-82.998794200000006</v>
+        <v>-113.5684164</v>
       </c>
       <c r="I90" s="1">
-        <v>39.961175500000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37.096527799999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C91" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>135</v>
+        <v>CT</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H91" s="1">
-        <v>-97.5164276</v>
+        <v>-72.673372299999997</v>
       </c>
       <c r="I91" s="1">
-        <v>35.467560200000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41.765804299999999</v>
+      </c>
+      <c r="J91" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C92" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>135</v>
+        <v>DC</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="E92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H92" s="1">
-        <v>-95.992774999999995</v>
+        <v>-77.036870699999994</v>
       </c>
       <c r="I92" s="1">
-        <v>36.153981600000002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38.907192299999998</v>
+      </c>
+      <c r="J92" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>OR</v>
+        <v>DE</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
       </c>
       <c r="F93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H93" s="1">
-        <v>-122.6783853</v>
+        <v>-75.524368199999998</v>
       </c>
       <c r="I93" s="1">
-        <v>45.515231999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.158168000000003</v>
+      </c>
+      <c r="J93" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="C94" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>OR</v>
+        <v>MA</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -6106,29 +6293,29 @@
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H94" s="1">
-        <v>-123.03509630000001</v>
+        <v>-70.300202400000003</v>
       </c>
       <c r="I94" s="1">
-        <v>44.942897500000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41.7003208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C95" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PA</v>
+        <v>MA</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -6137,29 +6324,32 @@
         <v>1</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H95" s="1">
-        <v>-76.8867008</v>
+        <v>-71.058880099999996</v>
       </c>
       <c r="I95" s="1">
-        <v>40.273191099999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42.360082499999997</v>
+      </c>
+      <c r="J95" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PA</v>
+        <f t="shared" ref="C96:C113" si="6">RIGHT(B96,2)</f>
+        <v>MD</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -6168,29 +6358,32 @@
         <v>1</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H96" s="1">
-        <v>-75.165221500000001</v>
+        <v>-76.492182900000003</v>
       </c>
       <c r="I96" s="1">
-        <v>39.9525839</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38.978445299999997</v>
+      </c>
+      <c r="J96" s="23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PA</v>
+        <f t="shared" si="6"/>
+        <v>MD</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -6199,60 +6392,64 @@
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H97" s="1">
-        <v>-79.995886400000003</v>
+        <v>-76.612189299999997</v>
       </c>
       <c r="I97" s="1">
-        <v>40.440624800000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.290384799999998</v>
+      </c>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PR</v>
+        <f t="shared" si="6"/>
+        <v>ME</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="G98:G129" si="7">((1-E98)-(1-F98))+((1-F98)*2)</f>
+        <v>0</v>
       </c>
       <c r="H98" s="1">
-        <v>-66.105735499999994</v>
+        <v>-69.779489699999999</v>
       </c>
       <c r="I98" s="1">
-        <v>18.465539400000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44.310624099999998</v>
+      </c>
+      <c r="J98" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>RI</v>
+        <f t="shared" si="6"/>
+        <v>ME</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -6261,339 +6458,372 @@
         <v>1</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H99" s="1">
-        <v>-71.4128343</v>
+        <v>-70.256818899999999</v>
       </c>
       <c r="I99" s="1">
-        <v>41.823989099999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43.659099300000001</v>
+      </c>
+      <c r="J99" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>SC</v>
+        <f t="shared" si="6"/>
+        <v>NH</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
       <c r="F100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H100" s="1">
-        <v>-79.931051199999999</v>
+        <v>-71.537571799999995</v>
       </c>
       <c r="I100" s="1">
-        <v>32.776474899999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43.208136600000003</v>
+      </c>
+      <c r="J100" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>SC</v>
+        <f t="shared" si="6"/>
+        <v>NJ</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H101" s="1">
-        <v>-81.034814400000002</v>
+        <v>-74.759716999999995</v>
       </c>
       <c r="I101" s="1">
-        <v>34.000710400000003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40.220582399999998</v>
+      </c>
+      <c r="J101" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>SD</v>
+        <f t="shared" si="6"/>
+        <v>NY</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H102" s="1">
-        <v>-100.3537522</v>
+        <v>-73.756231700000001</v>
       </c>
       <c r="I102" s="1">
-        <v>44.366787600000002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42.652579299999999</v>
+      </c>
+      <c r="J102" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>SD</v>
+        <f t="shared" si="6"/>
+        <v>NY</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H103" s="1">
-        <v>-96.731264999999993</v>
+        <v>-78.878368899999998</v>
       </c>
       <c r="I103" s="1">
-        <v>43.546022299999997</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42.886446800000002</v>
+      </c>
+      <c r="J103" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>TN</v>
+        <f t="shared" si="6"/>
+        <v>NY</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="E104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H104" s="1">
-        <v>-83.9207392</v>
+        <v>-74.005972799999995</v>
       </c>
       <c r="I104" s="1">
-        <v>35.960638400000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40.712775299999997</v>
+      </c>
+      <c r="J104" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>TN</v>
+        <f t="shared" si="6"/>
+        <v>NY</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H105" s="1">
-        <v>-90.048980099999994</v>
+        <v>-77.608846499999999</v>
       </c>
       <c r="I105" s="1">
-        <v>35.149534299999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43.156577900000002</v>
+      </c>
+      <c r="J105" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>TN</v>
+        <f t="shared" si="6"/>
+        <v>PA</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="E106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H106" s="1">
-        <v>-86.781601600000002</v>
+        <v>-76.8867008</v>
       </c>
       <c r="I106" s="1">
-        <v>36.162663799999997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40.273191099999998</v>
+      </c>
+      <c r="J106" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>TX</v>
+        <f t="shared" si="6"/>
+        <v>PA</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H107" s="1">
-        <v>-97.743060799999995</v>
+        <v>-75.165221500000001</v>
       </c>
       <c r="I107" s="1">
-        <v>30.267153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.9525839</v>
+      </c>
+      <c r="J107" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f t="shared" ref="C108:C129" si="5">RIGHT(B108,2)</f>
-        <v>TX</v>
+        <f t="shared" si="6"/>
+        <v>RI</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
       </c>
       <c r="F108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H108" s="1">
-        <v>-96.796987900000005</v>
+        <v>-71.4128343</v>
       </c>
       <c r="I108" s="1">
-        <v>32.776664199999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41.823989099999999</v>
+      </c>
+      <c r="J108" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>TX</v>
+        <f t="shared" si="6"/>
+        <v>VA</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
       </c>
       <c r="F109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H109" s="1">
-        <v>-106.4850217</v>
+        <v>-78.476678100000001</v>
       </c>
       <c r="I109" s="1">
-        <v>31.761877800000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38.029305899999997</v>
+      </c>
+      <c r="J109" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>TX</v>
+        <f t="shared" si="6"/>
+        <v>VA</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -6602,122 +6832,131 @@
         <v>0</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H110" s="1">
-        <v>-95.369802800000002</v>
+        <v>-76.285872600000005</v>
       </c>
       <c r="I110" s="1">
-        <v>29.7604267</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36.850768899999998</v>
+      </c>
+      <c r="J110" s="26"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>TX</v>
+        <f t="shared" si="6"/>
+        <v>VA</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="E111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H111" s="1">
-        <v>-101.8551665</v>
+        <v>-77.436048099999994</v>
       </c>
       <c r="I111" s="1">
-        <v>33.577863100000002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37.540724599999997</v>
+      </c>
+      <c r="J111" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>TX</v>
+        <f t="shared" si="6"/>
+        <v>VT</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="E112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H112" s="1">
-        <v>-98.230012400000007</v>
+        <v>-73.212072000000006</v>
       </c>
       <c r="I112" s="1">
-        <v>26.2034071</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44.475882499999997</v>
+      </c>
+      <c r="J112" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>TX</v>
+        <f t="shared" si="6"/>
+        <v>VT</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H113" s="1">
-        <v>-98.493628200000003</v>
+        <v>-72.575386899999998</v>
       </c>
       <c r="I113" s="1">
-        <v>29.424121899999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44.260059300000002</v>
+      </c>
+      <c r="J113" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C114" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>UT</v>
+        <v>122</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E114" s="1">
         <v>0</v>
@@ -6726,215 +6965,216 @@
         <v>0</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H114" s="1">
-        <v>-111.89104740000001</v>
+        <v>-123.1207375</v>
       </c>
       <c r="I114" s="1">
-        <v>40.760779300000003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49.282729099999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>UT</v>
+        <f t="shared" ref="C115:C129" si="8">RIGHT(B115,2)</f>
+        <v>OR</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="H115" s="1">
-        <v>-113.5684164</v>
+        <v>-122.6783853</v>
       </c>
       <c r="I115" s="1">
-        <v>37.096527799999997</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45.515231999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>VA</v>
+        <f t="shared" si="8"/>
+        <v>OR</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="E116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="H116" s="1">
-        <v>-78.476678100000001</v>
+        <v>-123.03509630000001</v>
       </c>
       <c r="I116" s="1">
-        <v>38.029305899999997</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+        <v>44.942897500000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C117" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>VA</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E117" s="5">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5">
-        <v>0</v>
-      </c>
-      <c r="G117" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C117" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>WA</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="H117" s="1">
-        <v>-76.285872600000005</v>
+        <v>-122.90069509999999</v>
       </c>
       <c r="I117" s="1">
-        <v>36.850768899999998</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47.037874100000003</v>
+      </c>
+      <c r="J117" s="24"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C118" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>VA</v>
+        <f t="shared" si="8"/>
+        <v>WA</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
       </c>
       <c r="F118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="H118" s="1">
-        <v>-77.436048099999994</v>
+        <v>-122.3320708</v>
       </c>
       <c r="I118" s="1">
-        <v>37.540724599999997</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47.606209499999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>VT</v>
+        <f t="shared" si="8"/>
+        <v>WA</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="E119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="H119" s="1">
-        <v>-73.212072000000006</v>
+        <v>-117.42604660000001</v>
       </c>
       <c r="I119" s="1">
-        <v>44.475882499999997</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47.658780200000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>VT</v>
+        <f t="shared" si="8"/>
+        <v>PR</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
       </c>
       <c r="F120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="H120" s="1">
-        <v>-72.575386899999998</v>
+        <v>-66.105735499999994</v>
       </c>
       <c r="I120" s="1">
-        <v>44.260059300000002</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18.465539400000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C121" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>WA</v>
+        <f t="shared" si="8"/>
+        <v>CO</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -6943,60 +7183,60 @@
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H121" s="1">
-        <v>-122.90069509999999</v>
+        <v>-104.990251</v>
       </c>
       <c r="I121" s="1">
-        <v>47.037874100000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.739235800000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C122" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>WA</v>
+        <f t="shared" si="8"/>
+        <v>CO</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="H122" s="1">
-        <v>-122.3320708</v>
+        <v>-108.5506486</v>
       </c>
       <c r="I122" s="1">
-        <v>47.606209499999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.0638705</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C123" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>WA</v>
+        <f t="shared" si="8"/>
+        <v>ID</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -7005,29 +7245,29 @@
         <v>0</v>
       </c>
       <c r="G123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H123" s="1">
-        <v>-117.42604660000001</v>
+        <v>-116.2023137</v>
       </c>
       <c r="I123" s="1">
-        <v>47.658780200000002</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43.615018599999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>WI</v>
+        <f t="shared" si="8"/>
+        <v>ID</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E124" s="1">
         <v>0</v>
@@ -7036,29 +7276,29 @@
         <v>0</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H124" s="1">
-        <v>-88.013295799999995</v>
+        <v>-112.0407584</v>
       </c>
       <c r="I124" s="1">
-        <v>44.5133188</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43.492660700000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C125" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>WI</v>
+        <f t="shared" si="8"/>
+        <v>MT</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -7067,29 +7307,29 @@
         <v>0</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H125" s="1">
-        <v>-89.401230200000001</v>
+        <v>-108.5006904</v>
       </c>
       <c r="I125" s="1">
-        <v>43.073051700000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45.783285599999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>WI</v>
+        <f t="shared" si="8"/>
+        <v>MT</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -7098,60 +7338,60 @@
         <v>0</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H126" s="1">
-        <v>-87.906473599999998</v>
+        <v>-112.03910569999999</v>
       </c>
       <c r="I126" s="1">
-        <v>43.038902499999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46.589145199999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C127" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>WV</v>
+        <f t="shared" si="8"/>
+        <v>UT</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="H127" s="1">
-        <v>-81.6326234</v>
+        <v>-111.89104740000001</v>
       </c>
       <c r="I127" s="1">
-        <v>38.349819500000002</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40.760779300000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C128" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>WY</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -7160,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H128" s="1">
@@ -7175,14 +7415,14 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C129" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>WY</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -7191,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H129" s="1">
@@ -7202,13 +7442,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F129" xr:uid="{E4038DB3-8426-7C4B-9410-FFCEAF90185D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F129">
-      <sortCondition ref="A1:A129"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F129">
+  <autoFilter ref="A1:J129" xr:uid="{E4038DB3-8426-7C4B-9410-FFCEAF90185D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I129">
     <sortCondition ref="D2:D129"/>
+    <sortCondition ref="C2:C129"/>
+    <sortCondition ref="B2:B129"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7216,10 +7454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9631FB04-418B-8B42-963F-59DBC5B62716}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7228,7 +7466,7 @@
     <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -7239,148 +7477,139 @@
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="L1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C2" s="1">
         <v>719</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D16" si="0">IF(B2="Drive",0,2)+_xlfn.CEILING.MATH(C2/200,1)+K2</f>
+        <f>IF(B2="None",0,2)+_xlfn.CEILING.MATH(C2/200,1)+K2</f>
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="I2" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="J2" s="23" t="s">
-        <v>251</v>
+      <c r="I2" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="K2" s="1">
         <f>(3*2)+3-2</f>
         <v>7</v>
       </c>
       <c r="L2" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M2" s="1">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1">
         <v>1056</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D16" si="0">IF(B3="None",0,2)+_xlfn.CEILING.MATH(C3/200,1)+K3</f>
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>251</v>
+      <c r="J3" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="K3" s="1">
         <f>2</f>
         <v>2</v>
       </c>
       <c r="L3" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" s="1">
-        <v>9</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1">
         <v>1610</v>
@@ -7390,88 +7619,81 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>251</v>
+        <v>213</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M4" s="1">
         <v>9</v>
       </c>
-      <c r="N4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1">
-        <f>1097+1202+(237*2)</f>
-        <v>2773</v>
+        <v>2211</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>251</v>
+        <v>212</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1">
         <v>9</v>
       </c>
-      <c r="N5" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1">
         <v>1955</v>
@@ -7481,132 +7703,123 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>251</v>
+        <v>219</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M6" s="1">
-        <v>10</v>
-      </c>
-      <c r="N6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="C7" s="1">
-        <v>2211</v>
+        <v>2403</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>251</v>
+        <v>274</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M7" s="1">
-        <v>10</v>
-      </c>
-      <c r="N7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C8" s="1">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>258</v>
+        <v>216</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" s="1">
-        <v>10</v>
-      </c>
-      <c r="N8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="1">
         <v>1963</v>
@@ -7616,154 +7829,144 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+        <v>217</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1">
         <v>10</v>
       </c>
-      <c r="N9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2339</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
+        <f>2228+113</f>
+        <v>2341</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="1">
         <f>971+490</f>
         <v>1461</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>5</v>
-      </c>
-      <c r="M10" s="1">
-        <v>11</v>
-      </c>
-      <c r="N10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C11" s="1">
-        <f>1951+(278*2)</f>
-        <v>2507</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>5</v>
-      </c>
-      <c r="M11" s="1">
-        <v>11</v>
-      </c>
-      <c r="N11" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="1">
-        <f>2228+113</f>
-        <v>2341</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>251</v>
+        <v>220</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -7772,18 +7975,15 @@
         <v>4</v>
       </c>
       <c r="M12" s="1">
-        <v>11</v>
-      </c>
-      <c r="N12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="1">
         <f>1448+783</f>
@@ -7794,42 +7994,39 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>251</v>
+        <v>215</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M13" s="1">
-        <v>12</v>
-      </c>
-      <c r="N13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -7839,41 +8036,38 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="J14" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" s="18"/>
       <c r="K14" s="1">
         <f>(3*2)+3-2</f>
         <v>7</v>
       </c>
       <c r="L14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" s="1">
-        <v>13</v>
-      </c>
-      <c r="N14" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -7883,80 +8077,76 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="J15" s="23"/>
+        <v>191</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="J15" s="18"/>
       <c r="K15" s="1">
         <f>(1*2)+3-2</f>
         <v>3</v>
       </c>
       <c r="L15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1">
-        <v>13</v>
-      </c>
-      <c r="N15" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="1">
-        <v>1384</v>
+        <v>1396</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="J16" s="23"/>
+        <v>161</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>250</v>
+      </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M16" s="1">
-        <v>13</v>
-      </c>
-      <c r="N16" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M16">
     <sortCondition ref="M2:M16"/>
     <sortCondition descending="1" ref="L2:L16"/>
   </sortState>
@@ -7966,10 +8156,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01B0898-0BB8-CE48-8A78-B23E3CEFACCF}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7985,993 +8175,1063 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>148</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s">
-        <v>151</v>
-      </c>
       <c r="D1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="K1" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="K1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="K2" s="15">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="K2" s="10">
         <f>GETPIVOTDATA("Sum of Visit",$A$1)</f>
         <v>68</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="10">
         <f>B75</f>
         <v>34</v>
       </c>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="5">
         <v>6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>9</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="K3" s="22">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="17">
         <f>K2/128</f>
         <v>0.53125</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="17">
         <f>L2/50</f>
         <v>0.68</v>
       </c>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B6" s="15">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="15">
         <v>8</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="C7" s="15">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="15">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>8</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="20">
-        <v>7</v>
-      </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20">
-        <v>16</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="20">
-        <v>8</v>
-      </c>
-      <c r="C7" s="20">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="5">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="20">
-        <v>16</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="20">
-        <v>7</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
-        <v>17</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="M13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="L14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M14" s="1">
+        <v>40</v>
+      </c>
+      <c r="N14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="L15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M15" s="1">
+        <f>M14+2</f>
+        <v>42</v>
+      </c>
+      <c r="N15" s="1">
+        <f>N14+0</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="L16" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M16" s="1">
+        <f>M15+11</f>
+        <v>53</v>
+      </c>
+      <c r="N16" s="1">
+        <f>N15+2</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="5">
+        <v>68</v>
+      </c>
+      <c r="C17" s="5">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5">
+        <v>150</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="L17" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M17" s="1">
+        <f>M16+6</f>
+        <v>59</v>
+      </c>
+      <c r="N17" s="1">
+        <f>N16+1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="L19" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M19" s="1">
+        <f>M17-M14</f>
+        <v>19</v>
+      </c>
+      <c r="N19" s="1">
+        <f>N17-N14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="L20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M20" s="28">
+        <f>M19/M14</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="N20" s="28">
+        <f>N19/N14</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>14</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="8">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8">
-        <v>8</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="8">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>13</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="8">
-        <v>21</v>
-      </c>
-      <c r="C12" s="8">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8">
-        <v>6</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="8">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>10</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>3</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="20">
-        <v>0</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20">
-        <v>18</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="8">
-        <v>68</v>
-      </c>
-      <c r="C17" s="8">
-        <v>38</v>
-      </c>
-      <c r="D17" s="8">
-        <v>150</v>
-      </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="16"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="16"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="16"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="16"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="16"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="16"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="16"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="16"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="16"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="16"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="16"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="16"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0</v>
+      </c>
+      <c r="D72" s="16"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="16"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
-      </c>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" s="8">
-        <v>0</v>
-      </c>
-      <c r="C34" s="8">
-        <v>0</v>
-      </c>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="8">
-        <v>1</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="8">
-        <v>1</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" s="8">
-        <v>1</v>
-      </c>
-      <c r="C37" s="8">
-        <v>1</v>
-      </c>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="8">
-        <v>1</v>
-      </c>
-      <c r="C38" s="8">
-        <v>1</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="8">
-        <v>1</v>
-      </c>
-      <c r="C39" s="8">
-        <v>0</v>
-      </c>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="8">
-        <v>1</v>
-      </c>
-      <c r="C40" s="8">
-        <v>1</v>
-      </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="8">
-        <v>1</v>
-      </c>
-      <c r="C41" s="8">
-        <v>1</v>
-      </c>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="8">
-        <v>1</v>
-      </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="8">
-        <v>0</v>
-      </c>
-      <c r="C43" s="8">
-        <v>0</v>
-      </c>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="8">
-        <v>0</v>
-      </c>
-      <c r="C44" s="8">
-        <v>0</v>
-      </c>
-      <c r="D44" s="21"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="8">
-        <v>1</v>
-      </c>
-      <c r="C45" s="8">
-        <v>1</v>
-      </c>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B46" s="8">
-        <v>1</v>
-      </c>
-      <c r="C46" s="8">
-        <v>0</v>
-      </c>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="8">
-        <v>0</v>
-      </c>
-      <c r="C47" s="8">
-        <v>0</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" s="8">
-        <v>1</v>
-      </c>
-      <c r="C48" s="8">
-        <v>1</v>
-      </c>
-      <c r="D48" s="21"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" s="8">
-        <v>0</v>
-      </c>
-      <c r="C49" s="8">
-        <v>0</v>
-      </c>
-      <c r="D49" s="21"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" s="8">
-        <v>1</v>
-      </c>
-      <c r="C50" s="8">
-        <v>1</v>
-      </c>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B51" s="8">
-        <v>1</v>
-      </c>
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B52" s="8">
-        <v>1</v>
-      </c>
-      <c r="C52" s="8">
-        <v>1</v>
-      </c>
-      <c r="D52" s="21"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B53" s="8">
-        <v>1</v>
-      </c>
-      <c r="C53" s="8">
-        <v>0</v>
-      </c>
-      <c r="D53" s="21"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B54" s="8">
-        <v>1</v>
-      </c>
-      <c r="C54" s="8">
-        <v>1</v>
-      </c>
-      <c r="D54" s="21"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B55" s="8">
-        <v>1</v>
-      </c>
-      <c r="C55" s="8">
-        <v>1</v>
-      </c>
-      <c r="D55" s="21"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" s="8">
-        <v>1</v>
-      </c>
-      <c r="C56" s="8">
-        <v>1</v>
-      </c>
-      <c r="D56" s="21"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B57" s="8">
-        <v>0</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0</v>
-      </c>
-      <c r="D57" s="21"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" s="8">
-        <v>1</v>
-      </c>
-      <c r="C58" s="8">
-        <v>0</v>
-      </c>
-      <c r="D58" s="21"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B59" s="8">
-        <v>1</v>
-      </c>
-      <c r="C59" s="8">
-        <v>1</v>
-      </c>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B60" s="8">
-        <v>1</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0</v>
-      </c>
-      <c r="D60" s="21"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61" s="8">
-        <v>1</v>
-      </c>
-      <c r="C61" s="8">
-        <v>1</v>
-      </c>
-      <c r="D61" s="21"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B62" s="8">
-        <v>1</v>
-      </c>
-      <c r="C62" s="8">
-        <v>0</v>
-      </c>
-      <c r="D62" s="21"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" s="8">
-        <v>0</v>
-      </c>
-      <c r="C63" s="8">
-        <v>0</v>
-      </c>
-      <c r="D63" s="21"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" s="8">
-        <v>0</v>
-      </c>
-      <c r="C64" s="8">
-        <v>0</v>
-      </c>
-      <c r="D64" s="21"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B65" s="8">
-        <v>1</v>
-      </c>
-      <c r="C65" s="8">
-        <v>0</v>
-      </c>
-      <c r="D65" s="21"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B66" s="8">
-        <v>0</v>
-      </c>
-      <c r="C66" s="8">
-        <v>0</v>
-      </c>
-      <c r="D66" s="21"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B67" s="8">
-        <v>1</v>
-      </c>
-      <c r="C67" s="8">
-        <v>1</v>
-      </c>
-      <c r="D67" s="21"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B68" s="8">
-        <v>1</v>
-      </c>
-      <c r="C68" s="8">
-        <v>1</v>
-      </c>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69" s="8">
-        <v>1</v>
-      </c>
-      <c r="C69" s="8">
-        <v>0</v>
-      </c>
-      <c r="D69" s="21"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B70" s="8">
-        <v>0</v>
-      </c>
-      <c r="C70" s="8">
-        <v>0</v>
-      </c>
-      <c r="D70" s="21"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" s="8">
-        <v>1</v>
-      </c>
-      <c r="C71" s="8">
-        <v>1</v>
-      </c>
-      <c r="D71" s="21"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B72" s="8">
-        <v>0</v>
-      </c>
-      <c r="C72" s="8">
-        <v>0</v>
-      </c>
-      <c r="D72" s="21"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="21"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="8">
-        <v>1</v>
-      </c>
-      <c r="C74" s="8">
-        <v>1</v>
-      </c>
-      <c r="D74" s="21"/>
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
